--- a/vehicle_model/powertrain_model/analysis/torque_speed_requirements/simmons_junk_mess_brother_type_shit.xlsx
+++ b/vehicle_model/powertrain_model/analysis/torque_speed_requirements/simmons_junk_mess_brother_type_shit.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\simulation_toolkit\vehicle_model\powertrain_model\analysis\torque_speed_processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simmons_\Documents\lhre git\simulation_toolkit\vehicle_model\powertrain_model\analysis\torque_speed_requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F03B698C-F0EF-42CF-B902-75E2F05146D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51120C60-1E1C-4CEB-8158-50A749A5F35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0FD615E-2AA3-440F-BDC1-CB75B6B9C2D5}"/>
+    <workbookView xWindow="3030" yWindow="4245" windowWidth="21600" windowHeight="11295" xr2:uid="{F0FD615E-2AA3-440F-BDC1-CB75B6B9C2D5}"/>
   </bookViews>
   <sheets>
     <sheet name="simmons_junk_mess_brother_type_" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2007,1327 +2020,1327 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="441"/>
                 <c:pt idx="0">
-                  <c:v>596.55183060911509</c:v>
+                  <c:v>642.44043296366237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>596.37913617391803</c:v>
+                  <c:v>642.25445434114249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>596.22930306737601</c:v>
+                  <c:v>642.09309561102032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>596.10355904275355</c:v>
+                  <c:v>641.95767896911912</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>596.2651701717034</c:v>
+                  <c:v>642.13172172337283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>596.5334478931394</c:v>
+                  <c:v>642.4206361926116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>596.83345901000814</c:v>
+                  <c:v>642.74372508770102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>597.16551003944653</c:v>
+                  <c:v>643.10131850401922</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>597.72677007242146</c:v>
+                  <c:v>643.7057523856846</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>597.51547125118759</c:v>
+                  <c:v>643.47819980897123</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>597.32899569028223</c:v>
+                  <c:v>643.27737997414999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>597.16839072127027</c:v>
+                  <c:v>643.10442077675259</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>597.21453915874292</c:v>
+                  <c:v>643.15411909403076</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>597.45432525066337</c:v>
+                  <c:v>643.41235026994514</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>597.72700306155195</c:v>
+                  <c:v>643.70600329705587</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>598.0327914451027</c:v>
+                  <c:v>644.03531386395662</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>598.92713215717004</c:v>
+                  <c:v>644.99845001541382</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>598.67588407747314</c:v>
+                  <c:v>644.72787516035555</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>598.18505581051352</c:v>
+                  <c:v>644.19929087286062</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>598.45151835664024</c:v>
+                  <c:v>644.48625053792011</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>598.39524846677421</c:v>
+                  <c:v>644.42565219498761</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>598.63956888799203</c:v>
+                  <c:v>644.68876649476056</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>598.25489237136208</c:v>
+                  <c:v>644.27449947685136</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>598.91813982835231</c:v>
+                  <c:v>644.98876596899481</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>598.08671561996266</c:v>
+                  <c:v>644.09338605226742</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>599.2310153909649</c:v>
+                  <c:v>645.32570888257749</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>600.20324506106067</c:v>
+                  <c:v>646.37272545037297</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>599.9204928133953</c:v>
+                  <c:v>646.06822302981027</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>599.67342408788625</c:v>
+                  <c:v>645.80214901772365</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>599.46209905681224</c:v>
+                  <c:v>645.57456821502842</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>599.15978334838996</c:v>
+                  <c:v>645.24899745211223</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>599.3633635428439</c:v>
+                  <c:v>645.46823766152409</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>599.59717317170305</c:v>
+                  <c:v>645.72003264644945</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>599.86067637253541</c:v>
+                  <c:v>646.0038053242688</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>601.12459203053947</c:v>
+                  <c:v>647.36494526365789</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>600.87141877882584</c:v>
+                  <c:v>647.09229714642777</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>600.65524634895439</c:v>
+                  <c:v>646.8594960681047</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>600.47624842231846</c:v>
+                  <c:v>646.66672907018904</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>600.25401030625642</c:v>
+                  <c:v>646.42739571442996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>600.49407995480919</c:v>
+                  <c:v>646.68593225902521</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>600.76623321030138</c:v>
+                  <c:v>646.97902038032453</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>601.07011452167308</c:v>
+                  <c:v>647.3062771771863</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>602.06549298658058</c:v>
+                  <c:v>648.37822321631756</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>601.84296837122452</c:v>
+                  <c:v>648.13858132285714</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>601.65884148679493</c:v>
+                  <c:v>647.940290831933</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>601.51340769822104</c:v>
+                  <c:v>647.78366982885336</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>601.36964909426513</c:v>
+                  <c:v>647.62885287074698</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>601.64728979500569</c:v>
+                  <c:v>647.92785054846763</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>601.95893818533705</c:v>
+                  <c:v>648.26347189190142</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>602.30442447483813</c:v>
+                  <c:v>648.63553404982565</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>603.02642096309239</c:v>
+                  <c:v>649.41306872948405</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>602.83564581600274</c:v>
+                  <c:v>649.20761857107982</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>602.68474704986011</c:v>
+                  <c:v>649.04511220754159</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>602.57414997803903</c:v>
+                  <c:v>648.92600766865735</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>602.50692632040796</c:v>
+                  <c:v>648.85361296043925</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>602.82320993485496</c:v>
+                  <c:v>649.19422608368995</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>603.1754900039374</c:v>
+                  <c:v>649.5736046196248</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>604.2066207280443</c:v>
+                  <c:v>650.68405309174</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>603.56378654187199</c:v>
+                  <c:v>649.99177012201596</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>604.00785255929168</c:v>
+                  <c:v>650.46999506385248</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>603.84995815564969</c:v>
+                  <c:v>650.29995493685351</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>603.73350236203578</c:v>
+                  <c:v>650.17454100526925</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>603.65904871077566</c:v>
+                  <c:v>650.094360150066</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>603.34786277377168</c:v>
+                  <c:v>649.75923683329256</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>603.66603907729507</c:v>
+                  <c:v>650.101888237087</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>604.02202174077775</c:v>
+                  <c:v>650.48525418237591</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>605.17650989786887</c:v>
+                  <c:v>651.72854912078185</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>604.41604790469034</c:v>
+                  <c:v>650.90959005120487</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>605.01026652958944</c:v>
+                  <c:v>651.54951780109627</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>604.88641352477009</c:v>
+                  <c:v>651.41613764205999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>604.84832975717643</c:v>
+                  <c:v>651.37512435388226</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>604.80564640954663</c:v>
+                  <c:v>651.3291576718193</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>604.49016835807652</c:v>
+                  <c:v>650.98941207792848</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>604.84715130651136</c:v>
+                  <c:v>651.37385525316608</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>606.16675098899714</c:v>
+                  <c:v>652.79496260353528</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>605.24386690378242</c:v>
+                  <c:v>651.80108743484254</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>606.03414217073055</c:v>
+                  <c:v>652.65215310694055</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>605.94551917650745</c:v>
+                  <c:v>652.55671295931563</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>605.68072367681805</c:v>
+                  <c:v>652.27154857503479</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>605.901715422846</c:v>
+                  <c:v>652.50953968614181</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>605.65363813839429</c:v>
+                  <c:v>652.24237953365537</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>607.17779658970892</c:v>
+                  <c:v>653.88378094276334</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>606.05039004036291</c:v>
+                  <c:v>652.66965081269848</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>607.0799574634292</c:v>
+                  <c:v>653.77841572984676</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>606.48884311641314</c:v>
+                  <c:v>653.14183104844483</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>607.0277792139658</c:v>
+                  <c:v>653.72222376888624</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>606.96957656847087</c:v>
+                  <c:v>653.6595439968147</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>607.02224010373686</c:v>
+                  <c:v>653.716258573255</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>608.21009763227971</c:v>
+                  <c:v>654.99548975783955</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>606.8383868359989</c:v>
+                  <c:v>653.51826274646032</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>608.14818694960275</c:v>
+                  <c:v>654.92881671495672</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>607.27584138235034</c:v>
+                  <c:v>653.98936764253108</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>608.13369200447778</c:v>
+                  <c:v>654.91320677405292</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>607.75699943594236</c:v>
+                  <c:v>654.50753785409177</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>609.33693259507709</c:v>
+                  <c:v>656.2090043331599</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>608.16774247167007</c:v>
+                  <c:v>654.94987650795224</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>608.28260821825847</c:v>
+                  <c:v>655.07357808120139</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>609.26410140819462</c:v>
+                  <c:v>656.13057074728647</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>608.04449110322378</c:v>
+                  <c:v>654.81714426501014</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>609.23929932236672</c:v>
+                  <c:v>656.10386080870251</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>608.5235464953571</c:v>
+                  <c:v>655.33305007192303</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>609.26374725008179</c:v>
+                  <c:v>656.13018934624188</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>610.37653886809312</c:v>
+                  <c:v>657.32858031948479</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>609.04833181183199</c:v>
+                  <c:v>655.89820348966509</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>609.33873229851145</c:v>
+                  <c:v>656.21094247531994</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>608.79722945833157</c:v>
+                  <c:v>655.62778557051081</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>610.34024932242608</c:v>
+                  <c:v>657.28949927030499</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>609.61975746793291</c:v>
+                  <c:v>656.51358496546618</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>609.27198596990104</c:v>
+                  <c:v>656.13906181373954</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>610.35375470482677</c:v>
+                  <c:v>657.30404352827497</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>609.79349744155115</c:v>
+                  <c:v>656.7006895524396</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>610.41842268701078</c:v>
+                  <c:v>657.37368597062698</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>611.43757983264823</c:v>
+                  <c:v>658.47123981977495</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>610.36277840872708</c:v>
+                  <c:v>657.31376136324445</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>611.4389743655131</c:v>
+                  <c:v>658.47274162439862</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>610.00474892825298</c:v>
+                  <c:v>656.92819115350312</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>610.98089523188628</c:v>
+                  <c:v>657.97942563433901</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>611.49200159382224</c:v>
+                  <c:v>658.52984787027003</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>610.52086104225805</c:v>
+                  <c:v>657.48400419935479</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>611.59818038788057</c:v>
+                  <c:v>658.64419426387133</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>612.52046353600133</c:v>
+                  <c:v>659.63742226953991</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>611.08563301741003</c:v>
+                  <c:v>658.09222017259538</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>612.56069828251714</c:v>
+                  <c:v>659.68075199655686</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>611.70021498989718</c:v>
+                  <c:v>658.75407768142759</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>611.23284073165394</c:v>
+                  <c:v>658.2507515571657</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>612.654473445544</c:v>
+                  <c:v>659.78174063366271</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>611.79105675201401</c:v>
+                  <c:v>658.85190727139968</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>613.62558718887033</c:v>
+                  <c:v>660.82755543416795</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>612.80346264182867</c:v>
+                  <c:v>659.94219053735389</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>612.39983461489715</c:v>
+                  <c:v>659.50751420065842</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>613.70582841849728</c:v>
+                  <c:v>660.91396906607395</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>612.4814476791463</c:v>
+                  <c:v>659.59540519292671</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>613.0604504557549</c:v>
+                  <c:v>660.21894664465913</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>614.68759940301334</c:v>
+                  <c:v>661.97126089555275</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>613.8415848814559</c:v>
+                  <c:v>661.06016833387548</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>613.08246060817442</c:v>
+                  <c:v>660.24264988572622</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>614.75333424919449</c:v>
+                  <c:v>662.04205226836325</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>614.03468739069342</c:v>
+                  <c:v>661.26812488228518</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>613.735922175268</c:v>
+                  <c:v>660.94637772721171</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>614.87475422155649</c:v>
+                  <c:v>662.17281223859925</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>613.75046369737072</c:v>
+                  <c:v>660.96203782793759</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>615.79793459356824</c:v>
+                  <c:v>663.16700648538108</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>614.44322252594304</c:v>
+                  <c:v>661.70808579716936</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>615.05372749531762</c:v>
+                  <c:v>662.36555268726511</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>615.90407119641145</c:v>
+                  <c:v>663.28130744228918</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>614.39490354942745</c:v>
+                  <c:v>661.65604997630646</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>615.29224320402329</c:v>
+                  <c:v>662.62241575817893</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>614.40591895638477</c:v>
+                  <c:v>661.66791272226044</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>616.0678433866193</c:v>
+                  <c:v>663.45767749328229</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>615.09365029966398</c:v>
+                  <c:v>662.40854647656113</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>616.93048936354944</c:v>
+                  <c:v>664.38668085305312</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>615.0397305285361</c:v>
+                  <c:v>662.35047903073109</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>616.29126524637456</c:v>
+                  <c:v>663.69828564994179</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>615.84819370936373</c:v>
+                  <c:v>663.22113168700707</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>617.07814398131177</c:v>
+                  <c:v>664.54569351833561</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>615.72815638491875</c:v>
+                  <c:v>663.09186072222019</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>615.67244621346549</c:v>
+                  <c:v>663.03186515296272</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>617.28543762615641</c:v>
+                  <c:v>664.76893282816843</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>618.08558982003547</c:v>
+                  <c:v>665.63063519080731</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>616.47270459265894</c:v>
+                  <c:v>663.8936818690172</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>616.34903448278783</c:v>
+                  <c:v>663.76049867377139</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>617.55452942396175</c:v>
+                  <c:v>665.05872399503562</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>618.27587413930371</c:v>
+                  <c:v>665.83555676540391</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>617.27494762947686</c:v>
+                  <c:v>664.75763590866734</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>617.08192648467991</c:v>
+                  <c:v>664.5497669835014</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>616.95434648033734</c:v>
+                  <c:v>664.41237313267095</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>618.52784805784393</c:v>
+                  <c:v>666.10691329306258</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>619.26353913569551</c:v>
+                  <c:v>666.89919599228733</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>617.87269822147005</c:v>
+                  <c:v>665.40136731542918</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>617.67247563390595</c:v>
+                  <c:v>665.18574299036015</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>618.84381317734346</c:v>
+                  <c:v>666.4471834217544</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>619.4975545447893</c:v>
+                  <c:v>667.15121258669615</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>620.2492590943483</c:v>
+                  <c:v>667.96074056314433</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>618.44804550121512</c:v>
+                  <c:v>666.02097207823158</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>618.25023615329189</c:v>
+                  <c:v>665.80794662662197</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>619.79535014309477</c:v>
+                  <c:v>667.47191553871733</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>620.46461359954549</c:v>
+                  <c:v>668.19266079951046</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>619.28258704046141</c:v>
+                  <c:v>666.91970912049692</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>619.0108305358533</c:v>
+                  <c:v>666.62704826938045</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>621.42951551068143</c:v>
+                  <c:v>669.23178593457999</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>620.74344469143614</c:v>
+                  <c:v>668.49294043693112</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>620.15936546805438</c:v>
+                  <c:v>667.86393204251999</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>619.5643381370071</c:v>
+                  <c:v>667.2231333783152</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>619.83031721689304</c:v>
+                  <c:v>667.50957238742319</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>621.68803034703569</c:v>
+                  <c:v>669.51018652757682</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>621.08817810182586</c:v>
+                  <c:v>668.86419180196617</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>620.11011949132637</c:v>
+                  <c:v>667.81089791373608</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>620.36763936368743</c:v>
+                  <c:v>668.08822700704798</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>620.71024814556961</c:v>
+                  <c:v>668.45719031061333</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>622.62945826913381</c:v>
+                  <c:v>670.52403198214404</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>622.01169630090419</c:v>
+                  <c:v>669.85874986251213</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>621.50138455422245</c:v>
+                  <c:v>669.30918336608568</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>620.89628167459</c:v>
+                  <c:v>668.65753411109688</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>621.23119960886072</c:v>
+                  <c:v>669.01821496338846</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>622.9320926236943</c:v>
+                  <c:v>670.84994590243991</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>622.4029676219991</c:v>
+                  <c:v>670.28011897753743</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>621.41774693898333</c:v>
+                  <c:v>669.21911208813583</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>623.85178035214994</c:v>
+                  <c:v>671.84037884077679</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>621.74243971172643</c:v>
+                  <c:v>669.56878122801299</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>623.30182612539329</c:v>
+                  <c:v>671.24812044273119</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>622.15657121786057</c:v>
+                  <c:v>670.01476900384978</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>622.24563718115166</c:v>
+                  <c:v>670.11068619508637</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>624.19946527558</c:v>
+                  <c:v>672.21480875831685</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>622.65012448870016</c:v>
+                  <c:v>670.54628791090784</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>623.74121231435515</c:v>
+                  <c:v>671.72130556930551</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>625.09662463744007</c:v>
+                  <c:v>673.18098037878156</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>622.74224203832171</c:v>
+                  <c:v>670.64549142588487</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>623.13470421139652</c:v>
+                  <c:v>671.06814299688847</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>624.61620102911104</c:v>
+                  <c:v>672.66360110827338</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>623.62086682707115</c:v>
+                  <c:v>671.59170273684583</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>625.99392257055922</c:v>
+                  <c:v>674.14730122983292</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>625.49025222917919</c:v>
+                  <c:v>673.60488701603913</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>623.61191489132329</c:v>
+                  <c:v>671.58206219065585</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>624.08645240425449</c:v>
+                  <c:v>672.09310258919709</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>625.10462903179882</c:v>
+                  <c:v>673.18960049578322</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>626.36409166304031</c:v>
+                  <c:v>674.54594486788949</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>624.08314966229909</c:v>
+                  <c:v>672.08954579016813</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>625.95487419815345</c:v>
+                  <c:v>674.10524913647282</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>624.54383943182904</c:v>
+                  <c:v>672.58567323427735</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>627.23832511114063</c:v>
+                  <c:v>675.48742704276674</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>626.80450667455011</c:v>
+                  <c:v>675.02023795720777</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>624.99456364096181</c:v>
+                  <c:v>673.0710685364204</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>626.49320589144759</c:v>
+                  <c:v>674.6849909600204</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>625.5394724824738</c:v>
+                  <c:v>673.65789344266409</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>627.65423482162873</c:v>
+                  <c:v>675.93532980790781</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>625.43995765243028</c:v>
+                  <c:v>673.5507236256941</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>627.31783826228093</c:v>
+                  <c:v>675.57305659014855</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>625.969185345092</c:v>
+                  <c:v>674.12066114086826</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>628.50464865887989</c:v>
+                  <c:v>676.85116009417823</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>625.88117285996793</c:v>
+                  <c:v>674.02587846458084</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>628.14222563163264</c:v>
+                  <c:v>676.46085837252735</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>626.39297034529557</c:v>
+                  <c:v>674.57704498724138</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>627.90685904225529</c:v>
+                  <c:v>676.20738666089028</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>627.00840296136619</c:v>
+                  <c:v>675.23981857377885</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>628.96705535908188</c:v>
+                  <c:v>677.34913654054958</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>626.81209602719935</c:v>
+                  <c:v>675.02841110621466</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>628.70501921281482</c:v>
+                  <c:v>677.06694376764665</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>629.79289849137945</c:v>
+                  <c:v>678.23850606763926</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>627.41001562861629</c:v>
+                  <c:v>675.6723245231251</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>627.22765738414728</c:v>
+                  <c:v>675.4759387213893</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>629.50334435416062</c:v>
+                  <c:v>677.92667853524983</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>627.80645978232792</c:v>
+                  <c:v>676.09926438096841</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>630.30249721721736</c:v>
+                  <c:v>678.78730469546485</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>628.49239214954673</c:v>
+                  <c:v>676.8379607764349</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>628.19893674439106</c:v>
+                  <c:v>676.52193187857495</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>631.10302667566725</c:v>
+                  <c:v>679.64941334302625</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>630.11627021925938</c:v>
+                  <c:v>678.58675254381774</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>628.86553869843158</c:v>
+                  <c:v>677.23981090600319</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>628.58848256904025</c:v>
+                  <c:v>676.94144276665861</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>631.90537621546275</c:v>
+                  <c:v>680.51348207819058</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>630.88773062964754</c:v>
+                  <c:v>679.41755606269726</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>629.2342952519881</c:v>
+                  <c:v>677.63693334829486</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>631.66044177102776</c:v>
+                  <c:v>680.24970652264517</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>629.99052012916798</c:v>
+                  <c:v>678.45132936987306</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>629.59979410570497</c:v>
+                  <c:v>678.03054749845137</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>632.43492720258428</c:v>
+                  <c:v>681.08376775662919</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>631.55136542826017</c:v>
+                  <c:v>680.13223969197247</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>629.96300979130763</c:v>
+                  <c:v>678.42170285217742</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>630.33489899331073</c:v>
+                  <c:v>678.82219891587306</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>633.2116076873308</c:v>
+                  <c:v>681.92019289404857</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>632.29517904977615</c:v>
+                  <c:v>680.93326974591264</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>630.67568014034384</c:v>
+                  <c:v>679.18919399729327</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>633.0407025299296</c:v>
+                  <c:v>681.73614118607793</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>631.01392538026698</c:v>
+                  <c:v>679.55345810182587</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>633.78843108304136</c:v>
+                  <c:v>682.54138732019828</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>631.35054666871565</c:v>
+                  <c:v>679.91597333553989</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>633.00999386406659</c:v>
+                  <c:v>681.70307031514858</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>631.8171789925841</c:v>
+                  <c:v>680.41850045355204</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>634.53876006261964</c:v>
+                  <c:v>683.34943391359025</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>633.72540536235738</c:v>
+                  <c:v>682.47351346715402</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>632.12975942718242</c:v>
+                  <c:v>680.75512553696558</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>634.44301989778876</c:v>
+                  <c:v>683.24632912069558</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>632.44053284933761</c:v>
+                  <c:v>681.08980460697899</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>635.16330147510007</c:v>
+                  <c:v>684.02201697318458</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>632.75034820169162</c:v>
+                  <c:v>681.42345190951391</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>634.49175354623742</c:v>
+                  <c:v>683.29881151133259</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>633.31140191463828</c:v>
+                  <c:v>682.02766360037958</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>635.88661750290419</c:v>
+                  <c:v>684.80097269543523</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>635.17804097727469</c:v>
+                  <c:v>684.03789028321876</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>633.59562185375478</c:v>
+                  <c:v>682.33374661173582</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>635.86705603368387</c:v>
+                  <c:v>684.77990649781339</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>633.87876553797037</c:v>
+                  <c:v>682.63867057935261</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>636.55922886972883</c:v>
+                  <c:v>685.52532339816946</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>634.16161856538986</c:v>
+                  <c:v>682.94328153195829</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>637.25489661014853</c:v>
+                  <c:v>686.27450404169838</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>634.81653468448144</c:v>
+                  <c:v>683.64857581405693</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>637.95430973995178</c:v>
+                  <c:v>687.02771818148653</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>636.65262763147155</c:v>
+                  <c:v>685.62590668004623</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>635.07230216593416</c:v>
+                  <c:v>683.92401771715981</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>637.31238973653387</c:v>
+                  <c:v>686.33641971626719</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>635.32772068159011</c:v>
+                  <c:v>684.19908381094308</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>637.97582613697944</c:v>
+                  <c:v>687.05088968597784</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>635.58351272367679</c:v>
+                  <c:v>684.47455216395952</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>638.64324160411672</c:v>
+                  <c:v>687.76964480443337</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>636.33149095765998</c:v>
+                  <c:v>685.28006718517224</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>639.31485772706014</c:v>
+                  <c:v>688.49292370606463</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>638.14861170324514</c:v>
+                  <c:v>687.23696644964855</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>636.55878379572971</c:v>
+                  <c:v>685.52484408770886</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>638.77851091878222</c:v>
+                  <c:v>687.91531945099621</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>636.78644618048565</c:v>
+                  <c:v>685.7700189635998</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>639.41262326745368</c:v>
+                  <c:v>688.59820967264238</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>637.01513829486078</c:v>
+                  <c:v>686.01630277908077</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>640.05121942113465</c:v>
+                  <c:v>689.28592860737569</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>640.69449052806976</c:v>
+                  <c:v>689.97868210715205</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>638.05400277413537</c:v>
+                  <c:v>687.13507991060726</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>639.66533897858858</c:v>
+                  <c:v>688.87036505386459</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>638.25394404842234</c:v>
+                  <c:v>687.35040128291632</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>640.26481581274709</c:v>
+                  <c:v>689.51595549065064</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>640.86906296366976</c:v>
+                  <c:v>690.16668319164432</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>638.45555853179212</c:v>
+                  <c:v>687.56752457269909</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>641.47831561552857</c:v>
+                  <c:v>690.82280143210755</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>642.09273324926528</c:v>
+                  <c:v>691.48448196074719</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>639.55685235572514</c:v>
+                  <c:v>688.75353330616554</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>641.20205068937128</c:v>
+                  <c:v>690.52528535778436</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>639.7291744287819</c:v>
+                  <c:v>688.93911092330347</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>641.77060314849928</c:v>
+                  <c:v>691.13757262146066</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>639.90379580078923</c:v>
+                  <c:v>689.12716470854218</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>642.34449693497584</c:v>
+                  <c:v>691.7556120838201</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>642.92393076982455</c:v>
+                  <c:v>692.37961775211875</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>643.50903160331586</c:v>
+                  <c:v>693.00972634203242</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>644.09985877930012</c:v>
+                  <c:v>693.64600176232318</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>641.06618789569529</c:v>
+                  <c:v>690.37897157997941</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>641.21105995885443</c:v>
+                  <c:v>690.53498764799701</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>643.29507105857545</c:v>
+                  <c:v>692.77930729385048</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>641.3588355337256</c:v>
+                  <c:v>690.6941305747813</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>643.83818280135119</c:v>
+                  <c:v>693.36419686299359</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>644.38737742765397</c:v>
+                  <c:v>693.95563722978113</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>644.94274889004134</c:v>
+                  <c:v>694.55372957389056</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>645.50432708839787</c:v>
+                  <c:v>695.15850609519759</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>642.58083280939491</c:v>
+                  <c:v>692.01012764088671</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>642.69849090558114</c:v>
+                  <c:v>692.13683635985649</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>642.8196304935384</c:v>
+                  <c:v>692.26729437765664</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>644.83731483229496</c:v>
+                  <c:v>694.44018520400994</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>645.34928175975915</c:v>
+                  <c:v>694.99153420281743</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>645.86787767652163</c:v>
+                  <c:v>695.55002211317708</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>646.39316352196306</c:v>
+                  <c:v>696.11571456211402</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>646.92513973008113</c:v>
+                  <c:v>696.68861201701043</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>644.1903302146784</c:v>
+                  <c:v>693.74343253888435</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>644.28510565213594</c:v>
+                  <c:v>693.84549839460783</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>646.39632563972259</c:v>
+                  <c:v>696.11911991970123</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>646.87685704601142</c:v>
+                  <c:v>696.63661528031992</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>647.36456144332203</c:v>
+                  <c:v>697.16183540050065</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>647.85946720592835</c:v>
+                  <c:v>697.69481083715357</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>648.36154568321604</c:v>
+                  <c:v>698.23551073577107</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>645.68541920293967</c:v>
+                  <c:v>695.35352837239657</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>645.75416303010195</c:v>
+                  <c:v>695.42756018626358</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>647.97099038452905</c:v>
+                  <c:v>697.81491272180051</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>648.419873425059</c:v>
+                  <c:v>698.29832522698655</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>648.87646568302796</c:v>
+                  <c:v>698.79003996633776</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>649.34076387086316</c:v>
+                  <c:v>699.29005339939101</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>649.81271106796578</c:v>
+                  <c:v>699.79830422704003</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>650.29219609783343</c:v>
+                  <c:v>700.3146727207436</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>647.18258332953883</c:v>
+                  <c:v>696.96585897027251</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>647.22568703721015</c:v>
+                  <c:v>697.01227834776466</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>649.97719774924099</c:v>
+                  <c:v>699.97544372995173</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>650.40253449198372</c:v>
+                  <c:v>700.43349868367477</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>650.83606943296161</c:v>
+                  <c:v>700.90038246626625</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>651.27771861618055</c:v>
+                  <c:v>701.37600466357901</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>651.72734668443593</c:v>
+                  <c:v>701.8602195063155</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>648.68063812947139</c:v>
+                  <c:v>698.57914875481526</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>648.69854985691609</c:v>
+                  <c:v>698.59843830744808</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>651.54760064054108</c:v>
+                  <c:v>701.66664684365958</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>651.94162026257368</c:v>
+                  <c:v>702.09097566738694</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>652.34431248142175</c:v>
+                  <c:v>702.52464421076183</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>652.75556797777688</c:v>
+                  <c:v>702.96753474529805</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>653.17522876195017</c:v>
+                  <c:v>703.41947712825402</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>650.17161695683717</c:v>
+                  <c:v>700.18481826120922</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>653.12975942874243</c:v>
+                  <c:v>703.37051015403017</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>653.49248593916707</c:v>
+                  <c:v>703.7611387037183</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>653.86433596096276</c:v>
+                  <c:v>704.16159257334448</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>654.24517687844491</c:v>
+                  <c:v>704.57172894601752</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>654.63483001410918</c:v>
+                  <c:v>704.99135539980989</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>651.64375251506897</c:v>
+                  <c:v>701.77019501622806</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>654.72226229704029</c:v>
+                  <c:v>705.08551324296639</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>655.0538083666703</c:v>
+                  <c:v>705.44256285641416</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>655.39489982251757</c:v>
+                  <c:v>705.80989211655731</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>655.7453831959798</c:v>
+                  <c:v>706.18733574951671</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>656.105061417549</c:v>
+                  <c:v>706.57468152659112</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>656.47369800142428</c:v>
+                  <c:v>706.97167477076459</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>653.11382470982085</c:v>
+                  <c:v>703.3533496874993</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>656.62418262761105</c:v>
+                  <c:v>707.13373513742727</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>656.93468458974974</c:v>
+                  <c:v>707.46812186588431</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>657.25494784063676</c:v>
+                  <c:v>707.81302075145493</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>657.58475953110701</c:v>
+                  <c:v>708.16820257196127</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>657.92386960616182</c:v>
+                  <c:v>708.53339803740494</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>654.58071103488908</c:v>
+                  <c:v>704.93307342218816</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>659.38242829421188</c:v>
+                  <c:v>710.10415354761267</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>659.07268982329219</c:v>
+                  <c:v>709.77058904046839</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>658.77255875517517</c:v>
+                  <c:v>709.44737096711174</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>658.48229611513364</c:v>
+                  <c:v>709.13478043168232</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>658.20212765560734</c:v>
+                  <c:v>708.83306055219248</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>660.84814730960534</c:v>
+                  <c:v>711.68262017957488</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>660.56755098572592</c:v>
+                  <c:v>711.38043952308942</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>660.29683598301426</c:v>
+                  <c:v>711.08890028939993</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>660.0362714946217</c:v>
+                  <c:v>710.80829237882335</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>659.78609308962132</c:v>
+                  <c:v>710.53886948113063</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>662.31973899973741</c:v>
+                  <c:v>713.26741123048646</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>662.06798020777978</c:v>
+                  <c:v>712.99628637760895</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>661.82633776001228</c:v>
+                  <c:v>712.73605604924387</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>661.59508606578231</c:v>
+                  <c:v>712.48701576315011</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>661.37446727915528</c:v>
+                  <c:v>712.24942630062867</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>663.7958602743962</c:v>
+                  <c:v>714.85708029550347</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>663.57255941807796</c:v>
+                  <c:v>714.61660245023779</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>663.35956761646446</c:v>
+                  <c:v>714.38722666388469</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>663.15716145371334</c:v>
+                  <c:v>714.16925079630664</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>665.27511872909236</c:v>
+                  <c:v>716.45012786209941</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>665.07982220588337</c:v>
+                  <c:v>716.23980852941281</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>664.89498216727418</c:v>
+                  <c:v>716.0407500262952</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>664.72087430385784</c:v>
+                  <c:v>715.85324925030841</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>664.19855344862128</c:v>
+                  <c:v>715.29074986774594</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>664.57381446081627</c:v>
+                  <c:v>715.69487711164822</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>664.97582676543334</c:v>
+                  <c:v>716.12781343969732</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>665.38024242861616</c:v>
+                  <c:v>716.56333800004813</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>665.65072151595689</c:v>
+                  <c:v>716.85462317103043</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>666.05555223622071</c:v>
+                  <c:v>717.29059471592996</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>666.75607941660087</c:v>
+                  <c:v>718.04500860249311</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>665.69664713191776</c:v>
+                  <c:v>716.90408152668056</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>666.47754958748396</c:v>
+                  <c:v>717.74505340190581</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>665.49053265977318</c:v>
+                  <c:v>716.68211209514027</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>665.2939378414826</c:v>
+                  <c:v>716.47039459851965</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>667.09624774074939</c:v>
+                  <c:v>718.41134372080694</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>666.91485867545089</c:v>
+                  <c:v>718.21600165048551</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>666.74302633052787</c:v>
+                  <c:v>718.03095143287612</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>668.49532400225814</c:v>
+                  <c:v>719.91804123320094</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>668.33815394343526</c:v>
+                  <c:v>719.74878116985326</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>668.19053499874644</c:v>
+                  <c:v>719.5898069217269</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>669.89263306811449</c:v>
+                  <c:v>721.42283561181557</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>669.75912213279184</c:v>
+                  <c:v>721.27905460454497</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>669.63511507740736</c:v>
+                  <c:v>721.14550854490017</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>671.28691841287889</c:v>
+                  <c:v>722.92437367540799</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>671.17645708048337</c:v>
+                  <c:v>722.80541531744359</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>672.67691561441632</c:v>
+                  <c:v>724.42129373860212</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>672.58885017195519</c:v>
+                  <c:v>724.32645403133631</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>674.06135783936236</c:v>
+                  <c:v>725.91223151931331</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>673.99499366565112</c:v>
+                  <c:v>725.84076240916261</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>675.43897884621265</c:v>
+                  <c:v>727.39582337284435</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>675.39358416993593</c:v>
+                  <c:v>727.34693679839245</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>676.80851934101622</c:v>
+                  <c:v>728.87071313647891</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>678.16873372751365</c:v>
+                  <c:v>730.33555939886082</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>679.51839666318483</c:v>
+                  <c:v>731.78904256035275</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>680.85630930695436</c:v>
+                  <c:v>733.22987156133536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4552,8 +4565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD607DC-77A3-436C-8042-7551601CF0B2}">
   <dimension ref="A1:K442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4598,19 +4611,19 @@
         <v>4516.5947199357597</v>
       </c>
       <c r="D2">
-        <f>C2*$J$2</f>
+        <f t="shared" ref="D2:D65" si="0">C2*$J$2</f>
         <v>917.77204709094633</v>
       </c>
       <c r="E2">
         <f>D2*$K$2</f>
-        <v>596.55183060911509</v>
+        <v>642.44043296366237</v>
       </c>
       <c r="J2">
         <f>8*0.0254</f>
         <v>0.20319999999999999</v>
       </c>
       <c r="K2">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4624,12 +4637,12 @@
         <v>4515.2872211835102</v>
       </c>
       <c r="D3">
-        <f>C3*$J$2</f>
+        <f t="shared" si="0"/>
         <v>917.50636334448927</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">D3*$K$2</f>
-        <v>596.37913617391803</v>
+        <f t="shared" ref="E3:E66" si="1">D3*$K$2</f>
+        <v>642.25445434114249</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4643,12 +4656,12 @@
         <v>4514.1528094138102</v>
       </c>
       <c r="D4">
-        <f>C4*$J$2</f>
+        <f t="shared" si="0"/>
         <v>917.27585087288617</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>596.22930306737601</v>
+        <f t="shared" si="1"/>
+        <v>642.09309561102032</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4662,12 +4675,12 @@
         <v>4513.2007801541004</v>
       </c>
       <c r="D5">
-        <f>C5*$J$2</f>
+        <f t="shared" si="0"/>
         <v>917.0823985273131</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>596.10355904275355</v>
+        <f t="shared" si="1"/>
+        <v>641.95767896911912</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4681,12 +4694,12 @@
         <v>4514.4243653218</v>
       </c>
       <c r="D6">
-        <f>C6*$J$2</f>
+        <f t="shared" si="0"/>
         <v>917.33103103338976</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>596.2651701717034</v>
+        <f t="shared" si="1"/>
+        <v>642.13172172337283</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4700,12 +4713,12 @@
         <v>4516.4555412866403</v>
       </c>
       <c r="D7">
-        <f>C7*$J$2</f>
+        <f t="shared" si="0"/>
         <v>917.74376598944525</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>596.5334478931394</v>
+        <f t="shared" si="1"/>
+        <v>642.4206361926116</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4719,12 +4732,12 @@
         <v>4518.7269761508796</v>
       </c>
       <c r="D8">
-        <f>C8*$J$2</f>
+        <f t="shared" si="0"/>
         <v>918.20532155385865</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>596.83345901000814</v>
+        <f t="shared" si="1"/>
+        <v>642.74372508770102</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4738,12 +4751,12 @@
         <v>4521.24099060756</v>
       </c>
       <c r="D9">
-        <f>C9*$J$2</f>
+        <f t="shared" si="0"/>
         <v>918.71616929145614</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>597.16551003944653</v>
+        <f t="shared" si="1"/>
+        <v>643.10131850401922</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4757,12 +4770,12 @@
         <v>4525.4903851637</v>
       </c>
       <c r="D10">
-        <f>C10*$J$2</f>
+        <f t="shared" si="0"/>
         <v>919.57964626526382</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>597.72677007242146</v>
+        <f t="shared" si="1"/>
+        <v>643.7057523856846</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4776,12 +4789,12 @@
         <v>4523.8906060810696</v>
       </c>
       <c r="D11">
-        <f>C11*$J$2</f>
+        <f t="shared" si="0"/>
         <v>919.25457115567326</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>597.51547125118759</v>
+        <f t="shared" si="1"/>
+        <v>643.47819980897123</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4795,12 +4808,12 @@
         <v>4522.4787680972304</v>
       </c>
       <c r="D12">
-        <f>C12*$J$2</f>
+        <f t="shared" si="0"/>
         <v>918.96768567735717</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>597.32899569028223</v>
+        <f t="shared" si="1"/>
+        <v>643.27737997414999</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4814,12 +4827,12 @@
         <v>4521.2628007364501</v>
       </c>
       <c r="D13">
-        <f>C13*$J$2</f>
+        <f t="shared" si="0"/>
         <v>918.72060110964662</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>597.16839072127027</v>
+        <f t="shared" si="1"/>
+        <v>643.10442077675259</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4833,12 +4846,12 @@
         <v>4521.6121983551102</v>
       </c>
       <c r="D14">
-        <f>C14*$J$2</f>
+        <f t="shared" si="0"/>
         <v>918.79159870575836</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>597.21453915874292</v>
+        <f t="shared" si="1"/>
+        <v>643.15411909403076</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4852,12 +4865,12 @@
         <v>4523.4276593781296</v>
       </c>
       <c r="D15">
-        <f>C15*$J$2</f>
+        <f t="shared" si="0"/>
         <v>919.16050038563594</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>597.45432525066337</v>
+        <f t="shared" si="1"/>
+        <v>643.41235026994514</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4871,12 +4884,12 @@
         <v>4525.4921491637797</v>
       </c>
       <c r="D16">
-        <f>C16*$J$2</f>
+        <f t="shared" si="0"/>
         <v>919.58000471007995</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>597.72700306155195</v>
+        <f t="shared" si="1"/>
+        <v>643.70600329705587</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4890,12 +4903,12 @@
         <v>4527.8073246903596</v>
       </c>
       <c r="D17">
-        <f>C17*$J$2</f>
+        <f t="shared" si="0"/>
         <v>920.05044837708101</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>598.0327914451027</v>
+        <f t="shared" si="1"/>
+        <v>644.03531386395662</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4909,12 +4922,12 @@
         <v>4534.5785293547096</v>
       </c>
       <c r="D18">
-        <f>C18*$J$2</f>
+        <f t="shared" si="0"/>
         <v>921.426357164877</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>598.92713215717004</v>
+        <f t="shared" si="1"/>
+        <v>644.99845001541382</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4928,12 +4941,12 @@
         <v>4532.6762876852899</v>
       </c>
       <c r="D19">
-        <f>C19*$J$2</f>
+        <f t="shared" si="0"/>
         <v>921.03982165765092</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>598.67588407747314</v>
+        <f t="shared" si="1"/>
+        <v>644.72787516035555</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4947,12 +4960,12 @@
         <v>4528.9601439318103</v>
       </c>
       <c r="D20">
-        <f>C20*$J$2</f>
+        <f t="shared" si="0"/>
         <v>920.28470124694377</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>598.18505581051352</v>
+        <f t="shared" si="1"/>
+        <v>644.19929087286062</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4966,12 +4979,12 @@
         <v>4530.9775768976397</v>
       </c>
       <c r="D21">
-        <f>C21*$J$2</f>
+        <f t="shared" si="0"/>
         <v>920.69464362560029</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>598.45151835664024</v>
+        <f t="shared" si="1"/>
+        <v>644.48625053792011</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4985,12 +4998,12 @@
         <v>4530.5515480525</v>
       </c>
       <c r="D22">
-        <f>C22*$J$2</f>
+        <f t="shared" si="0"/>
         <v>920.60807456426801</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>598.39524846677421</v>
+        <f t="shared" si="1"/>
+        <v>644.42565219498761</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5004,12 +5017,12 @@
         <v>4532.4013392488796</v>
       </c>
       <c r="D23">
-        <f>C23*$J$2</f>
+        <f t="shared" si="0"/>
         <v>920.98395213537231</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
-        <v>598.63956888799203</v>
+        <f t="shared" si="1"/>
+        <v>644.68876649476056</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5023,12 +5036,12 @@
         <v>4529.4888883355698</v>
       </c>
       <c r="D24">
-        <f>C24*$J$2</f>
+        <f t="shared" si="0"/>
         <v>920.39214210978776</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>598.25489237136208</v>
+        <f t="shared" si="1"/>
+        <v>644.27449947685136</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5042,12 +5055,12 @@
         <v>4534.5104469136304</v>
       </c>
       <c r="D25">
-        <f>C25*$J$2</f>
+        <f t="shared" si="0"/>
         <v>921.41252281284972</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>598.91813982835231</v>
+        <f t="shared" si="1"/>
+        <v>644.98876596899481</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5061,12 +5074,12 @@
         <v>4528.2155937307898</v>
       </c>
       <c r="D26">
-        <f>C26*$J$2</f>
+        <f t="shared" si="0"/>
         <v>920.13340864609643</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>598.08671561996266</v>
+        <f t="shared" si="1"/>
+        <v>644.09338605226742</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -5080,12 +5093,12 @@
         <v>4536.8792806705396</v>
       </c>
       <c r="D27">
-        <f>C27*$J$2</f>
+        <f t="shared" si="0"/>
         <v>921.89386983225359</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>599.2310153909649</v>
+        <f t="shared" si="1"/>
+        <v>645.32570888257749</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -5099,12 +5112,12 @@
         <v>4544.2401957984603</v>
       </c>
       <c r="D28">
-        <f>C28*$J$2</f>
+        <f t="shared" si="0"/>
         <v>923.3896077862471</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>600.20324506106067</v>
+        <f t="shared" si="1"/>
+        <v>646.37272545037297</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -5118,12 +5131,12 @@
         <v>4542.0994307495102</v>
       </c>
       <c r="D29">
-        <f>C29*$J$2</f>
+        <f t="shared" si="0"/>
         <v>922.95460432830043</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
-        <v>599.9204928133953</v>
+        <f t="shared" si="1"/>
+        <v>646.06822302981027</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5137,12 +5150,12 @@
         <v>4540.22883167691</v>
       </c>
       <c r="D30">
-        <f>C30*$J$2</f>
+        <f t="shared" si="0"/>
         <v>922.57449859674807</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>599.67342408788625</v>
+        <f t="shared" si="1"/>
+        <v>645.80214901772365</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -5156,12 +5169,12 @@
         <v>4538.6288541551503</v>
       </c>
       <c r="D31">
-        <f>C31*$J$2</f>
+        <f t="shared" si="0"/>
         <v>922.24938316432645</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>599.46209905681224</v>
+        <f t="shared" si="1"/>
+        <v>645.57456821502842</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -5175,12 +5188,12 @@
         <v>4536.3399708388097</v>
       </c>
       <c r="D32">
-        <f>C32*$J$2</f>
+        <f t="shared" si="0"/>
         <v>921.78428207444608</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>599.15978334838996</v>
+        <f t="shared" si="1"/>
+        <v>645.24899745211223</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -5194,12 +5207,12 @@
         <v>4537.8813108937302</v>
       </c>
       <c r="D33">
-        <f>C33*$J$2</f>
+        <f t="shared" si="0"/>
         <v>922.09748237360589</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>599.3633635428439</v>
+        <f t="shared" si="1"/>
+        <v>645.46823766152409</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -5213,12 +5226,12 @@
         <v>4539.6515231049598</v>
       </c>
       <c r="D34">
-        <f>C34*$J$2</f>
+        <f t="shared" si="0"/>
         <v>922.45718949492777</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>599.59717317170305</v>
+        <f t="shared" si="1"/>
+        <v>645.72003264644945</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -5232,12 +5245,12 @@
         <v>4541.6465503674699</v>
       </c>
       <c r="D35">
-        <f>C35*$J$2</f>
+        <f t="shared" si="0"/>
         <v>922.86257903466981</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>599.86067637253541</v>
+        <f t="shared" si="1"/>
+        <v>646.0038053242688</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -5251,12 +5264,12 @@
         <v>4551.2158694014197</v>
       </c>
       <c r="D36">
-        <f>C36*$J$2</f>
+        <f t="shared" si="0"/>
         <v>924.80706466236848</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>601.12459203053947</v>
+        <f t="shared" si="1"/>
+        <v>647.36494526365789</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -5270,12 +5283,12 @@
         <v>4549.2990519293298</v>
       </c>
       <c r="D37">
-        <f>C37*$J$2</f>
+        <f t="shared" si="0"/>
         <v>924.41756735203978</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
-        <v>600.87141877882584</v>
+        <f t="shared" si="1"/>
+        <v>647.09229714642777</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -5289,12 +5302,12 @@
         <v>4547.6623739321203</v>
       </c>
       <c r="D38">
-        <f>C38*$J$2</f>
+        <f t="shared" si="0"/>
         <v>924.0849943830068</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>600.65524634895439</v>
+        <f t="shared" si="1"/>
+        <v>646.8594960681047</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -5308,12 +5321,12 @@
         <v>4546.3071503809697</v>
       </c>
       <c r="D39">
-        <f>C39*$J$2</f>
+        <f t="shared" si="0"/>
         <v>923.80961295741304</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>600.47624842231846</v>
+        <f t="shared" si="1"/>
+        <v>646.66672907018904</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -5327,12 +5340,12 @@
         <v>4544.6245480485804</v>
       </c>
       <c r="D40">
-        <f>C40*$J$2</f>
+        <f t="shared" si="0"/>
         <v>923.46770816347146</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
-        <v>600.25401030625642</v>
+        <f t="shared" si="1"/>
+        <v>646.42739571442996</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -5346,12 +5359,12 @@
         <v>4546.4421559267803</v>
       </c>
       <c r="D41">
-        <f>C41*$J$2</f>
+        <f t="shared" si="0"/>
         <v>923.83704608432174</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
-        <v>600.49407995480919</v>
+        <f t="shared" si="1"/>
+        <v>646.68593225902521</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -5365,12 +5378,12 @@
         <v>4548.5026742148802</v>
       </c>
       <c r="D42">
-        <f>C42*$J$2</f>
+        <f t="shared" si="0"/>
         <v>924.25574340046364</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
-        <v>600.76623321030138</v>
+        <f t="shared" si="1"/>
+        <v>646.97902038032453</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -5384,12 +5397,12 @@
         <v>4550.80341097572</v>
       </c>
       <c r="D43">
-        <f>C43*$J$2</f>
+        <f t="shared" si="0"/>
         <v>924.72325311026623</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
-        <v>601.07011452167308</v>
+        <f t="shared" si="1"/>
+        <v>647.3062771771863</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -5403,12 +5416,12 @@
         <v>4558.3395895410404</v>
       </c>
       <c r="D44">
-        <f>C44*$J$2</f>
+        <f t="shared" si="0"/>
         <v>926.25460459473936</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
-        <v>602.06549298658058</v>
+        <f t="shared" si="1"/>
+        <v>648.37822321631756</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -5422,12 +5435,12 @@
         <v>4556.6548180740801</v>
       </c>
       <c r="D45">
-        <f>C45*$J$2</f>
+        <f t="shared" si="0"/>
         <v>925.91225903265308</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
-        <v>601.84296837122452</v>
+        <f t="shared" si="1"/>
+        <v>648.13858132285714</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -5441,12 +5454,12 @@
         <v>4555.2607623167396</v>
       </c>
       <c r="D46">
-        <f>C46*$J$2</f>
+        <f t="shared" si="0"/>
         <v>925.62898690276143</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
-        <v>601.65884148679493</v>
+        <f t="shared" si="1"/>
+        <v>647.940290831933</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -5460,12 +5473,12 @@
         <v>4554.1596585268098</v>
       </c>
       <c r="D47">
-        <f>C47*$J$2</f>
+        <f t="shared" si="0"/>
         <v>925.40524261264773</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
-        <v>601.51340769822104</v>
+        <f t="shared" si="1"/>
+        <v>647.78366982885336</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -5479,12 +5492,12 @@
         <v>4553.0712378427097</v>
       </c>
       <c r="D48">
-        <f>C48*$J$2</f>
+        <f t="shared" si="0"/>
         <v>925.18407552963856</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
-        <v>601.36964909426513</v>
+        <f t="shared" si="1"/>
+        <v>647.62885287074698</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -5498,12 +5511,12 @@
         <v>4555.1733025061003</v>
       </c>
       <c r="D49">
-        <f>C49*$J$2</f>
+        <f t="shared" si="0"/>
         <v>925.61121506923951</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
-        <v>601.64728979500569</v>
+        <f t="shared" si="1"/>
+        <v>647.92785054846763</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5517,12 +5530,12 @@
         <v>4557.5328451342903</v>
       </c>
       <c r="D50">
-        <f>C50*$J$2</f>
+        <f t="shared" si="0"/>
         <v>926.09067413128776</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
-        <v>601.95893818533705</v>
+        <f t="shared" si="1"/>
+        <v>648.26347189190142</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5536,12 +5549,12 @@
         <v>4560.1485802153102</v>
       </c>
       <c r="D51">
-        <f>C51*$J$2</f>
+        <f t="shared" si="0"/>
         <v>926.62219149975101</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
-        <v>602.30442447483813</v>
+        <f t="shared" si="1"/>
+        <v>648.63553404982565</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -5555,12 +5568,12 @@
         <v>4565.6149376369804</v>
       </c>
       <c r="D52">
-        <f>C52*$J$2</f>
+        <f t="shared" si="0"/>
         <v>927.73295532783436</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
-        <v>603.02642096309239</v>
+        <f t="shared" si="1"/>
+        <v>649.41306872948405</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -5574,12 +5587,12 @@
         <v>4564.1705467595602</v>
       </c>
       <c r="D53">
-        <f>C53*$J$2</f>
+        <f t="shared" si="0"/>
         <v>927.43945510154265</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
-        <v>602.83564581600274</v>
+        <f t="shared" si="1"/>
+        <v>649.20761857107982</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -5593,12 +5606,12 @@
         <v>4563.0280667009401</v>
       </c>
       <c r="D54">
-        <f>C54*$J$2</f>
+        <f t="shared" si="0"/>
         <v>927.20730315363096</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
-        <v>602.68474704986011</v>
+        <f t="shared" si="1"/>
+        <v>649.04511220754159</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -5612,12 +5625,12 @@
         <v>4562.19071758055</v>
       </c>
       <c r="D55">
-        <f>C55*$J$2</f>
+        <f t="shared" si="0"/>
         <v>927.03715381236771</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
-        <v>602.57414997803903</v>
+        <f t="shared" si="1"/>
+        <v>648.92600766865735</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5631,12 +5644,12 @@
         <v>4561.6817559086003</v>
       </c>
       <c r="D56">
-        <f>C56*$J$2</f>
+        <f t="shared" si="0"/>
         <v>926.93373280062758</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
-        <v>602.50692632040796</v>
+        <f t="shared" si="1"/>
+        <v>648.85361296043925</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5650,12 +5663,12 @@
         <v>4564.0763926018699</v>
       </c>
       <c r="D57">
-        <f>C57*$J$2</f>
+        <f t="shared" si="0"/>
         <v>927.42032297669994</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
-        <v>602.82320993485496</v>
+        <f t="shared" si="1"/>
+        <v>649.19422608368995</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -5669,12 +5682,12 @@
         <v>4566.7435645361702</v>
       </c>
       <c r="D58">
-        <f>C58*$J$2</f>
+        <f t="shared" si="0"/>
         <v>927.9622923137498</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
-        <v>603.1754900039374</v>
+        <f t="shared" si="1"/>
+        <v>649.5736046196248</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -5688,12 +5701,12 @@
         <v>4574.5504294976099</v>
       </c>
       <c r="D59">
-        <f>C59*$J$2</f>
+        <f t="shared" si="0"/>
         <v>929.5486472739143</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
-        <v>604.2066207280443</v>
+        <f t="shared" si="1"/>
+        <v>650.68405309174</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -5707,12 +5720,12 @@
         <v>4569.6834232425199</v>
       </c>
       <c r="D60">
-        <f>C60*$J$2</f>
+        <f t="shared" si="0"/>
         <v>928.55967160288003</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
-        <v>603.56378654187199</v>
+        <f t="shared" si="1"/>
+        <v>649.99177012201596</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -5726,12 +5739,12 @@
         <v>4573.0455221024504</v>
       </c>
       <c r="D61">
-        <f>C61*$J$2</f>
+        <f t="shared" si="0"/>
         <v>929.24285009121786</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
-        <v>604.00785255929168</v>
+        <f t="shared" si="1"/>
+        <v>650.46999506385248</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -5745,12 +5758,12 @@
         <v>4571.8500768901404</v>
       </c>
       <c r="D62">
-        <f>C62*$J$2</f>
+        <f t="shared" si="0"/>
         <v>928.99993562407644</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
-        <v>603.84995815564969</v>
+        <f t="shared" si="1"/>
+        <v>650.29995493685351</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -5764,12 +5777,12 @@
         <v>4570.9683703970004</v>
       </c>
       <c r="D63">
-        <f>C63*$J$2</f>
+        <f t="shared" si="0"/>
         <v>928.8207728646704</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
-        <v>603.73350236203578</v>
+        <f t="shared" si="1"/>
+        <v>650.17454100526925</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -5783,12 +5796,12 @@
         <v>4570.4046692214997</v>
       </c>
       <c r="D64">
-        <f>C64*$J$2</f>
+        <f t="shared" si="0"/>
         <v>928.70622878580866</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
-        <v>603.65904871077566</v>
+        <f t="shared" si="1"/>
+        <v>650.094360150066</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -5802,12 +5815,12 @@
         <v>4568.0486279056004</v>
       </c>
       <c r="D65">
-        <f>C65*$J$2</f>
+        <f t="shared" si="0"/>
         <v>928.22748119041796</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
-        <v>603.34786277377168</v>
+        <f t="shared" si="1"/>
+        <v>649.75923683329256</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -5821,12 +5834,12 @@
         <v>4570.4575944677099</v>
       </c>
       <c r="D66">
-        <f>C66*$J$2</f>
+        <f t="shared" ref="D66:D129" si="2">C66*$J$2</f>
         <v>928.71698319583857</v>
       </c>
       <c r="E66">
-        <f t="shared" si="0"/>
-        <v>603.66603907729507</v>
+        <f t="shared" si="1"/>
+        <v>650.101888237087</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -5840,12 +5853,12 @@
         <v>4573.1527993699101</v>
       </c>
       <c r="D67">
-        <f>C67*$J$2</f>
+        <f t="shared" si="2"/>
         <v>929.2646488319657</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="1">D67*$K$2</f>
-        <v>604.02202174077775</v>
+        <f t="shared" ref="E67:E130" si="3">D67*$K$2</f>
+        <v>650.48525418237591</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -5859,12 +5872,12 @@
         <v>4581.89362430246</v>
       </c>
       <c r="D68">
-        <f>C68*$J$2</f>
+        <f t="shared" si="2"/>
         <v>931.04078445825985</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
-        <v>605.17650989786887</v>
+        <f t="shared" si="3"/>
+        <v>651.72854912078185</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -5878,12 +5891,12 @@
         <v>4576.1360380427795</v>
       </c>
       <c r="D69">
-        <f>C69*$J$2</f>
+        <f t="shared" si="2"/>
         <v>929.87084293029272</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
-        <v>604.41604790469034</v>
+        <f t="shared" si="3"/>
+        <v>650.90959005120487</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -5897,12 +5910,12 @@
         <v>4580.6349676680002</v>
       </c>
       <c r="D70">
-        <f>C70*$J$2</f>
+        <f t="shared" si="2"/>
         <v>930.78502543013758</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
-        <v>605.01026652958944</v>
+        <f t="shared" si="3"/>
+        <v>651.54951780109627</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -5916,12 +5929,12 @@
         <v>4579.69725563878</v>
       </c>
       <c r="D71">
-        <f>C71*$J$2</f>
+        <f t="shared" si="2"/>
         <v>930.59448234580009</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
-        <v>604.88641352477009</v>
+        <f t="shared" si="3"/>
+        <v>651.41613764205999</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -5935,12 +5948,12 @@
         <v>4579.40891699861</v>
       </c>
       <c r="D72">
-        <f>C72*$J$2</f>
+        <f t="shared" si="2"/>
         <v>930.53589193411756</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
-        <v>604.84832975717643</v>
+        <f t="shared" si="3"/>
+        <v>651.37512435388226</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -5954,12 +5967,12 @@
         <v>4579.0857541607102</v>
       </c>
       <c r="D73">
-        <f>C73*$J$2</f>
+        <f t="shared" si="2"/>
         <v>930.47022524545628</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
-        <v>604.80564640954663</v>
+        <f t="shared" si="3"/>
+        <v>651.3291576718193</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -5973,12 +5986,12 @@
         <v>4576.6972165208699</v>
       </c>
       <c r="D74">
-        <f>C74*$J$2</f>
+        <f t="shared" si="2"/>
         <v>929.9848743970407</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
-        <v>604.49016835807652</v>
+        <f t="shared" si="3"/>
+        <v>650.98941207792848</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -5992,12 +6005,12 @@
         <v>4579.3999947494804</v>
       </c>
       <c r="D75">
-        <f>C75*$J$2</f>
+        <f t="shared" si="2"/>
         <v>930.53407893309441</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
-        <v>604.84715130651136</v>
+        <f t="shared" si="3"/>
+        <v>651.37385525316608</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -6011,12 +6024,12 @@
         <v>4589.39090694274</v>
       </c>
       <c r="D76">
-        <f>C76*$J$2</f>
+        <f t="shared" si="2"/>
         <v>932.56423229076472</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
-        <v>606.16675098899714</v>
+        <f t="shared" si="3"/>
+        <v>652.79496260353528</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -6030,12 +6043,12 @@
         <v>4582.4035955767904</v>
       </c>
       <c r="D77">
-        <f>C77*$J$2</f>
+        <f t="shared" si="2"/>
         <v>931.14441062120375</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
-        <v>605.24386690378242</v>
+        <f t="shared" si="3"/>
+        <v>651.80108743484254</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -6049,12 +6062,12 @@
         <v>4588.3869031702798</v>
       </c>
       <c r="D78">
-        <f>C78*$J$2</f>
+        <f t="shared" si="2"/>
         <v>932.36021872420076</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
-        <v>606.03414217073055</v>
+        <f t="shared" si="3"/>
+        <v>652.65215310694055</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -6068,12 +6081,12 @@
         <v>4587.7159235047502</v>
       </c>
       <c r="D79">
-        <f>C79*$J$2</f>
+        <f t="shared" si="2"/>
         <v>932.22387565616521</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
-        <v>605.94551917650745</v>
+        <f t="shared" si="3"/>
+        <v>652.55671295931563</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -6087,12 +6100,12 @@
         <v>4585.7111120292102</v>
       </c>
       <c r="D80">
-        <f>C80*$J$2</f>
+        <f t="shared" si="2"/>
         <v>931.81649796433544</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
-        <v>605.68072367681805</v>
+        <f t="shared" si="3"/>
+        <v>652.27154857503479</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -6106,12 +6119,12 @@
         <v>4587.3842778834496</v>
       </c>
       <c r="D81">
-        <f>C81*$J$2</f>
+        <f t="shared" si="2"/>
         <v>932.1564852659169</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
-        <v>605.901715422846</v>
+        <f t="shared" si="3"/>
+        <v>652.50953968614181</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -6125,12 +6138,12 @@
         <v>4585.5060428406596</v>
       </c>
       <c r="D82">
-        <f>C82*$J$2</f>
+        <f t="shared" si="2"/>
         <v>931.77482790522197</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
-        <v>605.65363813839429</v>
+        <f t="shared" si="3"/>
+        <v>652.24237953365537</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -6144,12 +6157,12 @@
         <v>4597.0457040408</v>
       </c>
       <c r="D83">
-        <f>C83*$J$2</f>
+        <f t="shared" si="2"/>
         <v>934.11968706109053</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
-        <v>607.17779658970892</v>
+        <f t="shared" si="3"/>
+        <v>653.88378094276334</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -6163,12 +6176,12 @@
         <v>4588.50991853697</v>
       </c>
       <c r="D84">
-        <f>C84*$J$2</f>
+        <f t="shared" si="2"/>
         <v>932.38521544671221</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
-        <v>606.05039004036291</v>
+        <f t="shared" si="3"/>
+        <v>652.66965081269848</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -6182,12 +6195,12 @@
         <v>4596.30494748205</v>
       </c>
       <c r="D85">
-        <f>C85*$J$2</f>
+        <f t="shared" si="2"/>
         <v>933.96916532835257</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
-        <v>607.0799574634292</v>
+        <f t="shared" si="3"/>
+        <v>653.77841572984676</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -6201,12 +6214,12 @@
         <v>4591.8295208692698</v>
       </c>
       <c r="D86">
-        <f>C86*$J$2</f>
+        <f t="shared" si="2"/>
         <v>933.05975864063555</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
-        <v>606.48884311641314</v>
+        <f t="shared" si="3"/>
+        <v>653.14183104844483</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -6220,12 +6233,12 @@
         <v>4595.9098971378398</v>
       </c>
       <c r="D87">
-        <f>C87*$J$2</f>
+        <f t="shared" si="2"/>
         <v>933.88889109840898</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
-        <v>607.0277792139658</v>
+        <f t="shared" si="3"/>
+        <v>653.72222376888624</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -6239,12 +6252,12 @@
         <v>4595.4692350732203</v>
       </c>
       <c r="D88">
-        <f>C88*$J$2</f>
+        <f t="shared" si="2"/>
         <v>933.79934856687828</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
-        <v>606.96957656847087</v>
+        <f t="shared" si="3"/>
+        <v>653.6595439968147</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -6258,12 +6271,12 @@
         <v>4595.8679595982503</v>
       </c>
       <c r="D89">
-        <f>C89*$J$2</f>
+        <f t="shared" si="2"/>
         <v>933.88036939036442</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
-        <v>607.02224010373686</v>
+        <f t="shared" si="3"/>
+        <v>653.716258573255</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -6277,12 +6290,12 @@
         <v>4604.8614296811002</v>
       </c>
       <c r="D90">
-        <f>C90*$J$2</f>
+        <f t="shared" si="2"/>
         <v>935.70784251119949</v>
       </c>
       <c r="E90">
-        <f t="shared" si="1"/>
-        <v>608.21009763227971</v>
+        <f t="shared" si="3"/>
+        <v>654.99548975783955</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -6296,12 +6309,12 @@
         <v>4594.4759754391198</v>
       </c>
       <c r="D91">
-        <f>C91*$J$2</f>
+        <f t="shared" si="2"/>
         <v>933.59751820922907</v>
       </c>
       <c r="E91">
-        <f t="shared" si="1"/>
-        <v>606.8383868359989</v>
+        <f t="shared" si="3"/>
+        <v>653.51826274646032</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -6315,12 +6328,12 @@
         <v>4604.3926934403598</v>
       </c>
       <c r="D92">
-        <f>C92*$J$2</f>
+        <f t="shared" si="2"/>
         <v>935.61259530708105</v>
       </c>
       <c r="E92">
-        <f t="shared" si="1"/>
-        <v>608.14818694960275</v>
+        <f t="shared" si="3"/>
+        <v>654.92881671495672</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -6334,12 +6347,12 @@
         <v>4597.7880177343304</v>
       </c>
       <c r="D93">
-        <f>C93*$J$2</f>
+        <f t="shared" si="2"/>
         <v>934.27052520361588</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
-        <v>607.27584138235034</v>
+        <f t="shared" si="3"/>
+        <v>653.98936764253108</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -6353,12 +6366,12 @@
         <v>4604.2829497613402</v>
       </c>
       <c r="D94">
-        <f>C94*$J$2</f>
+        <f t="shared" si="2"/>
         <v>935.59029539150424</v>
       </c>
       <c r="E94">
-        <f t="shared" si="1"/>
-        <v>608.13369200447778</v>
+        <f t="shared" si="3"/>
+        <v>654.91320677405292</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -6372,12 +6385,12 @@
         <v>4601.4309466682498</v>
       </c>
       <c r="D95">
-        <f>C95*$J$2</f>
+        <f t="shared" si="2"/>
         <v>935.0107683629883</v>
       </c>
       <c r="E95">
-        <f t="shared" si="1"/>
-        <v>607.75699943594236</v>
+        <f t="shared" si="3"/>
+        <v>654.50753785409177</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -6391,12 +6404,12 @@
         <v>4613.3928876065802</v>
       </c>
       <c r="D96">
-        <f>C96*$J$2</f>
+        <f t="shared" si="2"/>
         <v>937.44143476165709</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
-        <v>609.33693259507709</v>
+        <f t="shared" si="3"/>
+        <v>656.2090043331599</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -6410,12 +6423,12 @@
         <v>4604.5407516025898</v>
       </c>
       <c r="D97">
-        <f>C97*$J$2</f>
+        <f t="shared" si="2"/>
         <v>935.64268072564619</v>
       </c>
       <c r="E97">
-        <f t="shared" si="1"/>
-        <v>608.16774247167007</v>
+        <f t="shared" si="3"/>
+        <v>654.94987650795224</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -6429,12 +6442,12 @@
         <v>4605.4104195809996</v>
       </c>
       <c r="D98">
-        <f>C98*$J$2</f>
+        <f t="shared" si="2"/>
         <v>935.81939725885911</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
-        <v>608.28260821825847</v>
+        <f t="shared" si="3"/>
+        <v>655.07357808120139</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -6448,12 +6461,12 @@
         <v>4612.8414703830604</v>
       </c>
       <c r="D99">
-        <f>C99*$J$2</f>
+        <f t="shared" si="2"/>
         <v>937.3293867818378</v>
       </c>
       <c r="E99">
-        <f t="shared" si="1"/>
-        <v>609.26410140819462</v>
+        <f t="shared" si="3"/>
+        <v>656.13057074728647</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -6467,12 +6480,12 @@
         <v>4603.6075946640203</v>
       </c>
       <c r="D100">
-        <f>C100*$J$2</f>
+        <f t="shared" si="2"/>
         <v>935.45306323572891</v>
       </c>
       <c r="E100">
-        <f t="shared" si="1"/>
-        <v>608.04449110322378</v>
+        <f t="shared" si="3"/>
+        <v>654.81714426501014</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -6486,12 +6499,12 @@
         <v>4612.6536895999898</v>
       </c>
       <c r="D101">
-        <f>C101*$J$2</f>
+        <f t="shared" si="2"/>
         <v>937.29122972671792</v>
       </c>
       <c r="E101">
-        <f t="shared" si="1"/>
-        <v>609.23929932236672</v>
+        <f t="shared" si="3"/>
+        <v>656.10386080870251</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -6505,12 +6518,12 @@
         <v>4607.2346039927097</v>
       </c>
       <c r="D102">
-        <f>C102*$J$2</f>
+        <f t="shared" si="2"/>
         <v>936.19007153131861</v>
       </c>
       <c r="E102">
-        <f t="shared" si="1"/>
-        <v>608.5235464953571</v>
+        <f t="shared" si="3"/>
+        <v>655.33305007192303</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -6524,12 +6537,12 @@
         <v>4612.8387889921396</v>
       </c>
       <c r="D103">
-        <f>C103*$J$2</f>
+        <f t="shared" si="2"/>
         <v>937.32884192320273</v>
       </c>
       <c r="E103">
-        <f t="shared" si="1"/>
-        <v>609.26374725008179</v>
+        <f t="shared" si="3"/>
+        <v>656.13018934624188</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -6543,12 +6556,12 @@
         <v>4621.2639223810802</v>
       </c>
       <c r="D104">
-        <f>C104*$J$2</f>
+        <f t="shared" si="2"/>
         <v>939.04082902783546</v>
       </c>
       <c r="E104">
-        <f t="shared" si="1"/>
-        <v>610.37653886809312</v>
+        <f t="shared" si="3"/>
+        <v>657.32858031948479</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -6562,12 +6575,12 @@
         <v>4611.2078423064204</v>
       </c>
       <c r="D105">
-        <f>C105*$J$2</f>
+        <f t="shared" si="2"/>
         <v>936.99743355666453</v>
       </c>
       <c r="E105">
-        <f t="shared" si="1"/>
-        <v>609.04833181183199</v>
+        <f t="shared" si="3"/>
+        <v>655.89820348966509</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -6581,12 +6594,12 @@
         <v>4613.4065134654102</v>
       </c>
       <c r="D106">
-        <f>C106*$J$2</f>
+        <f t="shared" si="2"/>
         <v>937.44420353617136</v>
       </c>
       <c r="E106">
-        <f t="shared" si="1"/>
-        <v>609.33873229851145</v>
+        <f t="shared" si="3"/>
+        <v>656.21094247531994</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -6600,12 +6613,12 @@
         <v>4609.3067039546604</v>
       </c>
       <c r="D107">
-        <f>C107*$J$2</f>
+        <f t="shared" si="2"/>
         <v>936.61112224358692</v>
       </c>
       <c r="E107">
-        <f t="shared" si="1"/>
-        <v>608.79722945833157</v>
+        <f t="shared" si="3"/>
+        <v>655.62778557051081</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -6619,12 +6632,12 @@
         <v>4620.9891680983201</v>
       </c>
       <c r="D108">
-        <f>C108*$J$2</f>
+        <f t="shared" si="2"/>
         <v>938.98499895757857</v>
       </c>
       <c r="E108">
-        <f t="shared" si="1"/>
-        <v>610.34024932242608</v>
+        <f t="shared" si="3"/>
+        <v>657.28949927030499</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -6638,12 +6651,12 @@
         <v>4615.5342025131204</v>
       </c>
       <c r="D109">
-        <f>C109*$J$2</f>
+        <f t="shared" si="2"/>
         <v>937.876549950666</v>
       </c>
       <c r="E109">
-        <f t="shared" si="1"/>
-        <v>609.61975746793291</v>
+        <f t="shared" si="3"/>
+        <v>656.51358496546618</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -6657,12 +6670,12 @@
         <v>4612.9011657321398</v>
       </c>
       <c r="D110">
-        <f>C110*$J$2</f>
+        <f t="shared" si="2"/>
         <v>937.34151687677081</v>
       </c>
       <c r="E110">
-        <f t="shared" si="1"/>
-        <v>609.27198596990104</v>
+        <f t="shared" si="3"/>
+        <v>656.13906181373954</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6676,12 +6689,12 @@
         <v>4621.0914196307303</v>
       </c>
       <c r="D111">
-        <f>C111*$J$2</f>
+        <f t="shared" si="2"/>
         <v>939.00577646896431</v>
       </c>
       <c r="E111">
-        <f t="shared" si="1"/>
-        <v>610.35375470482677</v>
+        <f t="shared" si="3"/>
+        <v>657.30404352827497</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -6695,12 +6708,12 @@
         <v>4616.8496172134401</v>
       </c>
       <c r="D112">
-        <f>C112*$J$2</f>
+        <f t="shared" si="2"/>
         <v>938.14384221777095</v>
       </c>
       <c r="E112">
-        <f t="shared" si="1"/>
-        <v>609.79349744155115</v>
+        <f t="shared" si="3"/>
+        <v>656.7006895524396</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -6714,12 +6727,12 @@
         <v>4621.5810318519898</v>
       </c>
       <c r="D113">
-        <f>C113*$J$2</f>
+        <f t="shared" si="2"/>
         <v>939.10526567232432</v>
       </c>
       <c r="E113">
-        <f t="shared" si="1"/>
-        <v>610.41842268701078</v>
+        <f t="shared" si="3"/>
+        <v>657.37368597062698</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -6733,12 +6746,12 @@
         <v>4629.2972428274397</v>
       </c>
       <c r="D114">
-        <f>C114*$J$2</f>
+        <f t="shared" si="2"/>
         <v>940.67319974253576</v>
       </c>
       <c r="E114">
-        <f t="shared" si="1"/>
-        <v>611.43757983264823</v>
+        <f t="shared" si="3"/>
+        <v>658.47123981977495</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -6752,12 +6765,12 @@
         <v>4621.1597396178604</v>
       </c>
       <c r="D115">
-        <f>C115*$J$2</f>
+        <f t="shared" si="2"/>
         <v>939.01965909034925</v>
       </c>
       <c r="E115">
-        <f t="shared" si="1"/>
-        <v>610.36277840872708</v>
+        <f t="shared" si="3"/>
+        <v>657.31376136324445</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -6771,12 +6784,12 @@
         <v>4629.3078010714198</v>
       </c>
       <c r="D116">
-        <f>C116*$J$2</f>
+        <f t="shared" si="2"/>
         <v>940.67534517771242</v>
       </c>
       <c r="E116">
-        <f t="shared" si="1"/>
-        <v>611.4389743655131</v>
+        <f t="shared" si="3"/>
+        <v>658.47274162439862</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -6790,12 +6803,12 @@
         <v>4618.4490379183299</v>
       </c>
       <c r="D117">
-        <f>C117*$J$2</f>
+        <f t="shared" si="2"/>
         <v>938.46884450500454</v>
       </c>
       <c r="E117">
-        <f t="shared" si="1"/>
-        <v>610.00474892825298</v>
+        <f t="shared" si="3"/>
+        <v>656.92819115350312</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -6809,12 +6822,12 @@
         <v>4625.8396065406296</v>
       </c>
       <c r="D118">
-        <f>C118*$J$2</f>
+        <f t="shared" si="2"/>
         <v>939.97060804905584</v>
       </c>
       <c r="E118">
-        <f t="shared" si="1"/>
-        <v>610.98089523188628</v>
+        <f t="shared" si="3"/>
+        <v>657.97942563433901</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -6828,12 +6841,12 @@
         <v>4629.7092791779396</v>
       </c>
       <c r="D119">
-        <f>C119*$J$2</f>
+        <f t="shared" si="2"/>
         <v>940.75692552895725</v>
       </c>
       <c r="E119">
-        <f t="shared" si="1"/>
-        <v>611.49200159382224</v>
+        <f t="shared" si="3"/>
+        <v>658.52984787027003</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -6847,12 +6860,12 @@
         <v>4622.3566099504696</v>
       </c>
       <c r="D120">
-        <f>C120*$J$2</f>
+        <f t="shared" si="2"/>
         <v>939.26286314193544</v>
       </c>
       <c r="E120">
-        <f t="shared" si="1"/>
-        <v>610.52086104225805</v>
+        <f t="shared" si="3"/>
+        <v>657.48400419935479</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -6866,12 +6879,12 @@
         <v>4630.5131767707499</v>
       </c>
       <c r="D121">
-        <f>C121*$J$2</f>
+        <f t="shared" si="2"/>
         <v>940.9202775198163</v>
       </c>
       <c r="E121">
-        <f t="shared" si="1"/>
-        <v>611.59818038788057</v>
+        <f t="shared" si="3"/>
+        <v>658.64419426387133</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -6885,12 +6898,12 @@
         <v>4637.4959383404102</v>
       </c>
       <c r="D122">
-        <f>C122*$J$2</f>
+        <f t="shared" si="2"/>
         <v>942.33917467077129</v>
       </c>
       <c r="E122">
-        <f t="shared" si="1"/>
-        <v>612.52046353600133</v>
+        <f t="shared" si="3"/>
+        <v>659.63742226953991</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -6904,12 +6917,12 @@
         <v>4626.6325940143097</v>
       </c>
       <c r="D123">
-        <f>C123*$J$2</f>
+        <f t="shared" si="2"/>
         <v>940.13174310370766</v>
       </c>
       <c r="E123">
-        <f t="shared" si="1"/>
-        <v>611.08563301741003</v>
+        <f t="shared" si="3"/>
+        <v>658.09222017259538</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -6923,12 +6936,12 @@
         <v>4637.8005624054904</v>
       </c>
       <c r="D124">
-        <f>C124*$J$2</f>
+        <f t="shared" si="2"/>
         <v>942.40107428079557</v>
       </c>
       <c r="E124">
-        <f t="shared" si="1"/>
-        <v>612.56069828251714</v>
+        <f t="shared" si="3"/>
+        <v>659.68075199655686</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -6942,12 +6955,12 @@
         <v>4631.2856979852904</v>
       </c>
       <c r="D125">
-        <f>C125*$J$2</f>
+        <f t="shared" si="2"/>
         <v>941.07725383061097</v>
       </c>
       <c r="E125">
-        <f t="shared" si="1"/>
-        <v>611.70021498989718</v>
+        <f t="shared" si="3"/>
+        <v>658.75407768142759</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -6961,12 +6974,12 @@
         <v>4627.7471284952599</v>
       </c>
       <c r="D126">
-        <f>C126*$J$2</f>
+        <f t="shared" si="2"/>
         <v>940.35821651023673</v>
       </c>
       <c r="E126">
-        <f t="shared" si="1"/>
-        <v>611.23284073165394</v>
+        <f t="shared" si="3"/>
+        <v>658.2507515571657</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -6980,12 +6993,12 @@
         <v>4638.5105500116897</v>
       </c>
       <c r="D127">
-        <f>C127*$J$2</f>
+        <f t="shared" si="2"/>
         <v>942.5453437623753</v>
       </c>
       <c r="E127">
-        <f t="shared" si="1"/>
-        <v>612.654473445544</v>
+        <f t="shared" si="3"/>
+        <v>659.78174063366271</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -6999,12 +7012,12 @@
         <v>4631.9734763174902</v>
       </c>
       <c r="D128">
-        <f>C128*$J$2</f>
+        <f t="shared" si="2"/>
         <v>941.21701038771391</v>
       </c>
       <c r="E128">
-        <f t="shared" si="1"/>
-        <v>611.79105675201401</v>
+        <f t="shared" si="3"/>
+        <v>658.85190727139968</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -7018,12 +7031,12 @@
         <v>4645.8630162694599</v>
       </c>
       <c r="D129">
-        <f>C129*$J$2</f>
+        <f t="shared" si="2"/>
         <v>944.03936490595424</v>
       </c>
       <c r="E129">
-        <f t="shared" si="1"/>
-        <v>613.62558718887033</v>
+        <f t="shared" si="3"/>
+        <v>660.82755543416795</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -7037,12 +7050,12 @@
         <v>4639.6385723942203</v>
       </c>
       <c r="D130">
-        <f>C130*$J$2</f>
+        <f t="shared" ref="D130:D193" si="4">C130*$J$2</f>
         <v>942.77455791050556</v>
       </c>
       <c r="E130">
-        <f t="shared" si="1"/>
-        <v>612.80346264182867</v>
+        <f t="shared" si="3"/>
+        <v>659.94219053735389</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -7056,12 +7069,12 @@
         <v>4636.5826363938304</v>
       </c>
       <c r="D131">
-        <f>C131*$J$2</f>
+        <f t="shared" si="4"/>
         <v>942.1535917152263</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="2">D131*$K$2</f>
-        <v>612.39983461489715</v>
+        <f t="shared" ref="E131:E194" si="5">D131*$K$2</f>
+        <v>659.50751420065842</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -7075,12 +7088,12 @@
         <v>4646.4705361788101</v>
       </c>
       <c r="D132">
-        <f>C132*$J$2</f>
+        <f t="shared" si="4"/>
         <v>944.16281295153419</v>
       </c>
       <c r="E132">
-        <f t="shared" si="2"/>
-        <v>613.70582841849728</v>
+        <f t="shared" si="5"/>
+        <v>660.91396906607395</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -7094,12 +7107,12 @@
         <v>4637.2005426949299</v>
       </c>
       <c r="D133">
-        <f>C133*$J$2</f>
+        <f t="shared" si="4"/>
         <v>942.27915027560971</v>
       </c>
       <c r="E133">
-        <f t="shared" si="2"/>
-        <v>612.4814476791463</v>
+        <f t="shared" si="5"/>
+        <v>659.59540519292671</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -7113,12 +7126,12 @@
         <v>4641.5842705614396</v>
       </c>
       <c r="D134">
-        <f>C134*$J$2</f>
+        <f t="shared" si="4"/>
         <v>943.16992377808447</v>
       </c>
       <c r="E134">
-        <f t="shared" si="2"/>
-        <v>613.0604504557549</v>
+        <f t="shared" si="5"/>
+        <v>660.21894664465913</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -7132,12 +7145,12 @@
         <v>4653.90369021058</v>
       </c>
       <c r="D135">
-        <f>C135*$J$2</f>
+        <f t="shared" si="4"/>
         <v>945.67322985078977</v>
       </c>
       <c r="E135">
-        <f t="shared" si="2"/>
-        <v>614.68759940301334</v>
+        <f t="shared" si="5"/>
+        <v>661.97126089555275</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -7151,12 +7164,12 @@
         <v>4647.4983713011497</v>
       </c>
       <c r="D136">
-        <f>C136*$J$2</f>
+        <f t="shared" si="4"/>
         <v>944.37166904839364</v>
       </c>
       <c r="E136">
-        <f t="shared" si="2"/>
-        <v>613.8415848814559</v>
+        <f t="shared" si="5"/>
+        <v>661.06016833387548</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -7170,12 +7183,12 @@
         <v>4641.7509131448696</v>
       </c>
       <c r="D137">
-        <f>C137*$J$2</f>
+        <f t="shared" si="4"/>
         <v>943.20378555103753</v>
       </c>
       <c r="E137">
-        <f t="shared" si="2"/>
-        <v>613.08246060817442</v>
+        <f t="shared" si="5"/>
+        <v>660.24264988572622</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -7189,12 +7202,12 @@
         <v>4654.4013798394499</v>
       </c>
       <c r="D138">
-        <f>C138*$J$2</f>
+        <f t="shared" si="4"/>
         <v>945.77436038337612</v>
       </c>
       <c r="E138">
-        <f t="shared" si="2"/>
-        <v>614.75333424919449</v>
+        <f t="shared" si="5"/>
+        <v>662.04205226836325</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -7208,12 +7221,12 @@
         <v>4648.9603830306896</v>
       </c>
       <c r="D139">
-        <f>C139*$J$2</f>
+        <f t="shared" si="4"/>
         <v>944.66874983183607</v>
       </c>
       <c r="E139">
-        <f t="shared" si="2"/>
-        <v>614.03468739069342</v>
+        <f t="shared" si="5"/>
+        <v>661.26812488228518</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -7227,12 +7240,12 @@
         <v>4646.6983810968204</v>
       </c>
       <c r="D140">
-        <f>C140*$J$2</f>
+        <f t="shared" si="4"/>
         <v>944.20911103887386</v>
       </c>
       <c r="E140">
-        <f t="shared" si="2"/>
-        <v>613.735922175268</v>
+        <f t="shared" si="5"/>
+        <v>660.94637772721171</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -7246,12 +7259,12 @@
         <v>4655.3206709687802</v>
       </c>
       <c r="D141">
-        <f>C141*$J$2</f>
+        <f t="shared" si="4"/>
         <v>945.96116034085605</v>
       </c>
       <c r="E141">
-        <f t="shared" si="2"/>
-        <v>614.87475422155649</v>
+        <f t="shared" si="5"/>
+        <v>662.17281223859925</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -7265,12 +7278,12 @@
         <v>4646.8084774180097</v>
       </c>
       <c r="D142">
-        <f>C142*$J$2</f>
+        <f t="shared" si="4"/>
         <v>944.23148261133952</v>
       </c>
       <c r="E142">
-        <f t="shared" si="2"/>
-        <v>613.75046369737072</v>
+        <f t="shared" si="5"/>
+        <v>660.96203782793759</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -7284,12 +7297,12 @@
         <v>4662.3102255721396</v>
       </c>
       <c r="D143">
-        <f>C143*$J$2</f>
+        <f t="shared" si="4"/>
         <v>947.38143783625878</v>
       </c>
       <c r="E143">
-        <f t="shared" si="2"/>
-        <v>615.79793459356824</v>
+        <f t="shared" si="5"/>
+        <v>663.16700648538108</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -7303,12 +7316,12 @@
         <v>4652.0534715774002</v>
       </c>
       <c r="D144">
-        <f>C144*$J$2</f>
+        <f t="shared" si="4"/>
         <v>945.29726542452772</v>
       </c>
       <c r="E144">
-        <f t="shared" si="2"/>
-        <v>614.44322252594304</v>
+        <f t="shared" si="5"/>
+        <v>661.70808579716936</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -7322,12 +7335,12 @@
         <v>4656.6757078688497</v>
       </c>
       <c r="D145">
-        <f>C145*$J$2</f>
+        <f t="shared" si="4"/>
         <v>946.23650383895017</v>
       </c>
       <c r="E145">
-        <f t="shared" si="2"/>
-        <v>615.05372749531762</v>
+        <f t="shared" si="5"/>
+        <v>662.36555268726511</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -7341,12 +7354,12 @@
         <v>4663.1138037281298</v>
       </c>
       <c r="D146">
-        <f>C146*$J$2</f>
+        <f t="shared" si="4"/>
         <v>947.54472491755598</v>
       </c>
       <c r="E146">
-        <f t="shared" si="2"/>
-        <v>615.90407119641145</v>
+        <f t="shared" si="5"/>
+        <v>663.28130744228918</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -7360,12 +7373,12 @@
         <v>4651.6876404408504</v>
       </c>
       <c r="D147">
-        <f>C147*$J$2</f>
+        <f t="shared" si="4"/>
         <v>945.22292853758074</v>
       </c>
       <c r="E147">
-        <f t="shared" si="2"/>
-        <v>614.39490354942745</v>
+        <f t="shared" si="5"/>
+        <v>661.65604997630646</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -7379,12 +7392,12 @@
         <v>4658.4815506058703</v>
       </c>
       <c r="D148">
-        <f>C148*$J$2</f>
+        <f t="shared" si="4"/>
         <v>946.60345108311276</v>
       </c>
       <c r="E148">
-        <f t="shared" si="2"/>
-        <v>615.29224320402329</v>
+        <f t="shared" si="5"/>
+        <v>662.62241575817893</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -7398,12 +7411,12 @@
         <v>4651.7710399484004</v>
       </c>
       <c r="D149">
-        <f>C149*$J$2</f>
+        <f t="shared" si="4"/>
         <v>945.23987531751493</v>
       </c>
       <c r="E149">
-        <f t="shared" si="2"/>
-        <v>614.40591895638477</v>
+        <f t="shared" si="5"/>
+        <v>661.66791272226044</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -7417,12 +7430,12 @@
         <v>4664.3537506558096</v>
       </c>
       <c r="D150">
-        <f>C150*$J$2</f>
+        <f t="shared" si="4"/>
         <v>947.79668213326045</v>
       </c>
       <c r="E150">
-        <f t="shared" si="2"/>
-        <v>616.0678433866193</v>
+        <f t="shared" si="5"/>
+        <v>663.45767749328229</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -7436,12 +7449,12 @@
         <v>4656.9779701670504</v>
       </c>
       <c r="D151">
-        <f>C151*$J$2</f>
+        <f t="shared" si="4"/>
         <v>946.2979235379446</v>
       </c>
       <c r="E151">
-        <f t="shared" si="2"/>
-        <v>615.09365029966398</v>
+        <f t="shared" si="5"/>
+        <v>662.40854647656113</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -7455,12 +7468,12 @@
         <v>4670.8849891243899</v>
       </c>
       <c r="D152">
-        <f>C152*$J$2</f>
+        <f t="shared" si="4"/>
         <v>949.123829790076</v>
       </c>
       <c r="E152">
-        <f t="shared" si="2"/>
-        <v>616.93048936354944</v>
+        <f t="shared" si="5"/>
+        <v>664.38668085305312</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -7474,12 +7487,12 @@
         <v>4656.5697344680202</v>
       </c>
       <c r="D153">
-        <f>C153*$J$2</f>
+        <f t="shared" si="4"/>
         <v>946.21497004390164</v>
       </c>
       <c r="E153">
-        <f t="shared" si="2"/>
-        <v>615.0397305285361</v>
+        <f t="shared" si="5"/>
+        <v>662.35047903073109</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -7493,12 +7506,12 @@
         <v>4666.0453153117396</v>
       </c>
       <c r="D154">
-        <f>C154*$J$2</f>
+        <f t="shared" si="4"/>
         <v>948.14040807134541</v>
       </c>
       <c r="E154">
-        <f t="shared" si="2"/>
-        <v>616.29126524637456</v>
+        <f t="shared" si="5"/>
+        <v>663.69828564994179</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -7512,12 +7525,12 @@
         <v>4662.6907458310397</v>
       </c>
       <c r="D155">
-        <f>C155*$J$2</f>
+        <f t="shared" si="4"/>
         <v>947.45875955286726</v>
       </c>
       <c r="E155">
-        <f t="shared" si="2"/>
-        <v>615.84819370936373</v>
+        <f t="shared" si="5"/>
+        <v>663.22113168700707</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -7531,12 +7544,12 @@
         <v>4672.0029071873996</v>
       </c>
       <c r="D156">
-        <f>C156*$J$2</f>
+        <f t="shared" si="4"/>
         <v>949.35099074047957</v>
       </c>
       <c r="E156">
-        <f t="shared" si="2"/>
-        <v>617.07814398131177</v>
+        <f t="shared" si="5"/>
+        <v>664.54569351833561</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -7550,12 +7563,12 @@
         <v>4661.7819229627403</v>
       </c>
       <c r="D157">
-        <f>C157*$J$2</f>
+        <f t="shared" si="4"/>
         <v>947.27408674602884</v>
       </c>
       <c r="E157">
-        <f t="shared" si="2"/>
-        <v>615.72815638491875</v>
+        <f t="shared" si="5"/>
+        <v>663.09186072222019</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -7569,12 +7582,12 @@
         <v>4661.3601318402898</v>
       </c>
       <c r="D158">
-        <f>C158*$J$2</f>
+        <f t="shared" si="4"/>
         <v>947.1883787899468</v>
       </c>
       <c r="E158">
-        <f t="shared" si="2"/>
-        <v>615.67244621346549</v>
+        <f t="shared" si="5"/>
+        <v>663.03186515296272</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -7588,12 +7601,12 @@
         <v>4673.5723624027596</v>
       </c>
       <c r="D159">
-        <f>C159*$J$2</f>
+        <f t="shared" si="4"/>
         <v>949.66990404024068</v>
       </c>
       <c r="E159">
-        <f t="shared" si="2"/>
-        <v>617.28543762615641</v>
+        <f t="shared" si="5"/>
+        <v>664.76893282816843</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -7607,12 +7620,12 @@
         <v>4679.6304498791296</v>
       </c>
       <c r="D160">
-        <f>C160*$J$2</f>
+        <f t="shared" si="4"/>
         <v>950.90090741543906</v>
       </c>
       <c r="E160">
-        <f t="shared" si="2"/>
-        <v>618.08558982003547</v>
+        <f t="shared" si="5"/>
+        <v>665.63063519080731</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -7626,12 +7639,12 @@
         <v>4667.4190232636201</v>
       </c>
       <c r="D161">
-        <f>C161*$J$2</f>
+        <f t="shared" si="4"/>
         <v>948.41954552716754</v>
       </c>
       <c r="E161">
-        <f t="shared" si="2"/>
-        <v>616.47270459265894</v>
+        <f t="shared" si="5"/>
+        <v>663.8936818690172</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -7645,12 +7658,12 @@
         <v>4666.48269596296</v>
       </c>
       <c r="D162">
-        <f>C162*$J$2</f>
+        <f t="shared" si="4"/>
         <v>948.22928381967347</v>
       </c>
       <c r="E162">
-        <f t="shared" si="2"/>
-        <v>616.34903448278783</v>
+        <f t="shared" si="5"/>
+        <v>663.76049867377139</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -7664,12 +7677,12 @@
         <v>4675.6097018773598</v>
       </c>
       <c r="D163">
-        <f>C163*$J$2</f>
+        <f t="shared" si="4"/>
         <v>950.08389142147951</v>
       </c>
       <c r="E163">
-        <f t="shared" si="2"/>
-        <v>617.55452942396175</v>
+        <f t="shared" si="5"/>
+        <v>665.05872399503562</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -7683,12 +7696,12 @@
         <v>4681.07112461617</v>
       </c>
       <c r="D164">
-        <f>C164*$J$2</f>
+        <f t="shared" si="4"/>
         <v>951.19365252200566</v>
       </c>
       <c r="E164">
-        <f t="shared" si="2"/>
-        <v>618.27587413930371</v>
+        <f t="shared" si="5"/>
+        <v>665.83555676540391</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -7702,12 +7715,12 @@
         <v>4673.4929408652097</v>
       </c>
       <c r="D165">
-        <f>C165*$J$2</f>
+        <f t="shared" si="4"/>
         <v>949.65376558381058</v>
       </c>
       <c r="E165">
-        <f t="shared" si="2"/>
-        <v>617.27494762947686</v>
+        <f t="shared" si="5"/>
+        <v>664.75763590866734</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -7721,12 +7734,12 @@
         <v>4672.0315451595998</v>
       </c>
       <c r="D166">
-        <f>C166*$J$2</f>
+        <f t="shared" si="4"/>
         <v>949.35680997643067</v>
       </c>
       <c r="E166">
-        <f t="shared" si="2"/>
-        <v>617.08192648467991</v>
+        <f t="shared" si="5"/>
+        <v>664.5497669835014</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -7740,12 +7753,12 @@
         <v>4671.0656153871696</v>
       </c>
       <c r="D167">
-        <f>C167*$J$2</f>
+        <f t="shared" si="4"/>
         <v>949.16053304667287</v>
       </c>
       <c r="E167">
-        <f t="shared" si="2"/>
-        <v>616.95434648033734</v>
+        <f t="shared" si="5"/>
+        <v>664.41237313267095</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -7759,12 +7772,12 @@
         <v>4682.9788617341301</v>
       </c>
       <c r="D168">
-        <f>C168*$J$2</f>
+        <f t="shared" si="4"/>
         <v>951.58130470437516</v>
       </c>
       <c r="E168">
-        <f t="shared" si="2"/>
-        <v>618.52784805784393</v>
+        <f t="shared" si="5"/>
+        <v>666.10691329306258</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -7778,12 +7791,12 @@
         <v>4688.5489032078704</v>
       </c>
       <c r="D169">
-        <f>C169*$J$2</f>
+        <f t="shared" si="4"/>
         <v>952.71313713183918</v>
       </c>
       <c r="E169">
-        <f t="shared" si="2"/>
-        <v>619.26353913569551</v>
+        <f t="shared" si="5"/>
+        <v>666.89919599228733</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -7797,12 +7810,12 @@
         <v>4678.0186116101604</v>
       </c>
       <c r="D170">
-        <f>C170*$J$2</f>
+        <f t="shared" si="4"/>
         <v>950.57338187918458</v>
       </c>
       <c r="E170">
-        <f t="shared" si="2"/>
-        <v>617.87269822147005</v>
+        <f t="shared" si="5"/>
+        <v>665.40136731542918</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -7816,12 +7829,12 @@
         <v>4676.5026925643997</v>
       </c>
       <c r="D171">
-        <f>C171*$J$2</f>
+        <f t="shared" si="4"/>
         <v>950.26534712908597</v>
       </c>
       <c r="E171">
-        <f t="shared" si="2"/>
-        <v>617.67247563390595</v>
+        <f t="shared" si="5"/>
+        <v>665.18574299036015</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -7835,12 +7848,12 @@
         <v>4685.3710870483301</v>
       </c>
       <c r="D172">
-        <f>C172*$J$2</f>
+        <f t="shared" si="4"/>
         <v>952.06740488822061</v>
       </c>
       <c r="E172">
-        <f t="shared" si="2"/>
-        <v>618.84381317734346</v>
+        <f t="shared" si="5"/>
+        <v>666.4471834217544</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -7854,12 +7867,12 @@
         <v>4690.3206734160303</v>
       </c>
       <c r="D173">
-        <f>C173*$J$2</f>
+        <f t="shared" si="4"/>
         <v>953.07316083813737</v>
       </c>
       <c r="E173">
-        <f t="shared" si="2"/>
-        <v>619.4975545447893</v>
+        <f t="shared" si="5"/>
+        <v>667.15121258669615</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -7873,12 +7886,12 @@
         <v>4696.0119555901601</v>
       </c>
       <c r="D174">
-        <f>C174*$J$2</f>
+        <f t="shared" si="4"/>
         <v>954.22962937592047</v>
       </c>
       <c r="E174">
-        <f t="shared" si="2"/>
-        <v>620.2492590943483</v>
+        <f t="shared" si="5"/>
+        <v>667.96074056314433</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -7892,12 +7905,12 @@
         <v>4682.3746630921796</v>
       </c>
       <c r="D175">
-        <f>C175*$J$2</f>
+        <f t="shared" si="4"/>
         <v>951.45853154033091</v>
       </c>
       <c r="E175">
-        <f t="shared" si="2"/>
-        <v>618.44804550121512</v>
+        <f t="shared" si="5"/>
+        <v>666.02097207823158</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -7911,12 +7924,12 @@
         <v>4680.8770150915498</v>
       </c>
       <c r="D176">
-        <f>C176*$J$2</f>
+        <f t="shared" si="4"/>
         <v>951.15420946660288</v>
       </c>
       <c r="E176">
-        <f t="shared" si="2"/>
-        <v>618.25023615329189</v>
+        <f t="shared" si="5"/>
+        <v>665.80794662662197</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -7930,12 +7943,12 @@
         <v>4692.57533421483</v>
       </c>
       <c r="D177">
-        <f>C177*$J$2</f>
+        <f t="shared" si="4"/>
         <v>953.53130791245337</v>
       </c>
       <c r="E177">
-        <f t="shared" si="2"/>
-        <v>619.79535014309477</v>
+        <f t="shared" si="5"/>
+        <v>667.47191553871733</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -7949,12 +7962,12 @@
         <v>4697.6424409414403</v>
       </c>
       <c r="D178">
-        <f>C178*$J$2</f>
+        <f t="shared" si="4"/>
         <v>954.56094399930066</v>
       </c>
       <c r="E178">
-        <f t="shared" si="2"/>
-        <v>620.46461359954549</v>
+        <f t="shared" si="5"/>
+        <v>668.19266079951046</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -7968,12 +7981,12 @@
         <v>4688.6931181137297</v>
       </c>
       <c r="D179">
-        <f>C179*$J$2</f>
+        <f t="shared" si="4"/>
         <v>952.74244160070987</v>
       </c>
       <c r="E179">
-        <f t="shared" si="2"/>
-        <v>619.28258704046141</v>
+        <f t="shared" si="5"/>
+        <v>666.91970912049692</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -7987,12 +8000,12 @@
         <v>4686.6356036936204</v>
       </c>
       <c r="D180">
-        <f>C180*$J$2</f>
+        <f t="shared" si="4"/>
         <v>952.32435467054358</v>
       </c>
       <c r="E180">
-        <f t="shared" si="2"/>
-        <v>619.0108305358533</v>
+        <f t="shared" si="5"/>
+        <v>666.62704826938045</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -8006,12 +8019,12 @@
         <v>4704.9478763679699</v>
       </c>
       <c r="D181">
-        <f>C181*$J$2</f>
+        <f t="shared" si="4"/>
         <v>956.04540847797148</v>
       </c>
       <c r="E181">
-        <f t="shared" si="2"/>
-        <v>621.42951551068143</v>
+        <f t="shared" si="5"/>
+        <v>669.23178593457999</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -8025,12 +8038,12 @@
         <v>4699.7535182573902</v>
       </c>
       <c r="D182">
-        <f>C182*$J$2</f>
+        <f t="shared" si="4"/>
         <v>954.9899149099017</v>
       </c>
       <c r="E182">
-        <f t="shared" si="2"/>
-        <v>620.74344469143614</v>
+        <f t="shared" si="5"/>
+        <v>668.49294043693112</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -8044,12 +8057,12 @@
         <v>4695.3313557544998</v>
       </c>
       <c r="D183">
-        <f>C183*$J$2</f>
+        <f t="shared" si="4"/>
         <v>954.09133148931437</v>
       </c>
       <c r="E183">
-        <f t="shared" si="2"/>
-        <v>620.15936546805438</v>
+        <f t="shared" si="5"/>
+        <v>667.86393204251999</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -8063,12 +8076,12 @@
         <v>4690.8263032783698</v>
       </c>
       <c r="D184">
-        <f>C184*$J$2</f>
+        <f t="shared" si="4"/>
         <v>953.1759048261647</v>
       </c>
       <c r="E184">
-        <f t="shared" si="2"/>
-        <v>619.5643381370071</v>
+        <f t="shared" si="5"/>
+        <v>667.2231333783152</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -8082,12 +8095,12 @@
         <v>4692.8400758395901</v>
       </c>
       <c r="D185">
-        <f>C185*$J$2</f>
+        <f t="shared" si="4"/>
         <v>953.58510341060469</v>
       </c>
       <c r="E185">
-        <f t="shared" si="2"/>
-        <v>619.83031721689304</v>
+        <f t="shared" si="5"/>
+        <v>667.50957238742319</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -8101,12 +8114,12 @@
         <v>4706.9051358800398</v>
       </c>
       <c r="D186">
-        <f>C186*$J$2</f>
+        <f t="shared" si="4"/>
         <v>956.44312361082405</v>
       </c>
       <c r="E186">
-        <f t="shared" si="2"/>
-        <v>621.68803034703569</v>
+        <f t="shared" si="5"/>
+        <v>669.51018652757682</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -8120,12 +8133,12 @@
         <v>4702.36355316343</v>
       </c>
       <c r="D187">
-        <f>C187*$J$2</f>
+        <f t="shared" si="4"/>
         <v>955.52027400280895</v>
       </c>
       <c r="E187">
-        <f t="shared" si="2"/>
-        <v>621.08817810182586</v>
+        <f t="shared" si="5"/>
+        <v>668.86419180196617</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -8139,12 +8152,12 @@
         <v>4694.9585061426897</v>
       </c>
       <c r="D188">
-        <f>C188*$J$2</f>
+        <f t="shared" si="4"/>
         <v>954.01556844819447</v>
       </c>
       <c r="E188">
-        <f t="shared" si="2"/>
-        <v>620.11011949132637</v>
+        <f t="shared" si="5"/>
+        <v>667.81089791373608</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -8158,12 +8171,12 @@
         <v>4696.9082326142297</v>
       </c>
       <c r="D189">
-        <f>C189*$J$2</f>
+        <f t="shared" si="4"/>
         <v>954.41175286721148</v>
       </c>
       <c r="E189">
-        <f t="shared" si="2"/>
-        <v>620.36763936368743</v>
+        <f t="shared" si="5"/>
+        <v>668.08822700704798</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -8177,12 +8190,12 @@
         <v>4699.5021815988002</v>
       </c>
       <c r="D190">
-        <f>C190*$J$2</f>
+        <f t="shared" si="4"/>
         <v>954.93884330087621</v>
       </c>
       <c r="E190">
-        <f t="shared" si="2"/>
-        <v>620.71024814556961</v>
+        <f t="shared" si="5"/>
+        <v>668.45719031061333</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -8196,12 +8209,12 @@
         <v>4714.0328457687301</v>
       </c>
       <c r="D191">
-        <f>C191*$J$2</f>
+        <f t="shared" si="4"/>
         <v>957.89147426020588</v>
       </c>
       <c r="E191">
-        <f t="shared" si="2"/>
-        <v>622.62945826913381</v>
+        <f t="shared" si="5"/>
+        <v>670.52403198214404</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -8215,12 +8228,12 @@
         <v>4709.3556655126004</v>
       </c>
       <c r="D192">
-        <f>C192*$J$2</f>
+        <f t="shared" si="4"/>
         <v>956.94107123216031</v>
       </c>
       <c r="E192">
-        <f t="shared" si="2"/>
-        <v>622.01169630090419</v>
+        <f t="shared" si="5"/>
+        <v>669.85874986251213</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -8234,12 +8247,12 @@
         <v>4705.4920090416599</v>
       </c>
       <c r="D193">
-        <f>C193*$J$2</f>
+        <f t="shared" si="4"/>
         <v>956.15597623726524</v>
       </c>
       <c r="E193">
-        <f t="shared" si="2"/>
-        <v>621.50138455422245</v>
+        <f t="shared" si="5"/>
+        <v>669.30918336608568</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -8253,12 +8266,12 @@
         <v>4700.91067288454</v>
       </c>
       <c r="D194">
-        <f>C194*$J$2</f>
+        <f t="shared" ref="D194:D257" si="6">C194*$J$2</f>
         <v>955.2250487301385</v>
       </c>
       <c r="E194">
-        <f t="shared" si="2"/>
-        <v>620.89628167459</v>
+        <f t="shared" si="5"/>
+        <v>668.65753411109688</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -8272,12 +8285,12 @@
         <v>4703.4463931621804</v>
       </c>
       <c r="D195">
-        <f>C195*$J$2</f>
+        <f t="shared" si="6"/>
         <v>955.74030709055501</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="3">D195*$K$2</f>
-        <v>621.23119960886072</v>
+        <f t="shared" ref="E195:E258" si="7">D195*$K$2</f>
+        <v>669.01821496338846</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -8291,12 +8304,12 @@
         <v>4716.3241416088304</v>
       </c>
       <c r="D196">
-        <f>C196*$J$2</f>
+        <f t="shared" si="6"/>
         <v>958.35706557491426</v>
       </c>
       <c r="E196">
-        <f t="shared" si="3"/>
-        <v>622.9320926236943</v>
+        <f t="shared" si="7"/>
+        <v>670.84994590243991</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -8310,12 +8323,12 @@
         <v>4712.3180468049604</v>
       </c>
       <c r="D197">
-        <f>C197*$J$2</f>
+        <f t="shared" si="6"/>
         <v>957.54302711076787</v>
       </c>
       <c r="E197">
-        <f t="shared" si="3"/>
-        <v>622.4029676219991</v>
+        <f t="shared" si="7"/>
+        <v>670.28011897753743</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -8329,12 +8342,12 @@
         <v>4704.8587745228897</v>
       </c>
       <c r="D198">
-        <f>C198*$J$2</f>
+        <f t="shared" si="6"/>
         <v>956.02730298305119</v>
       </c>
       <c r="E198">
-        <f t="shared" si="3"/>
-        <v>621.41774693898333</v>
+        <f t="shared" si="7"/>
+        <v>669.21911208813583</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -8348,12 +8361,12 @@
         <v>4723.2872528176104</v>
       </c>
       <c r="D199">
-        <f>C199*$J$2</f>
+        <f t="shared" si="6"/>
         <v>959.77196977253834</v>
       </c>
       <c r="E199">
-        <f t="shared" si="3"/>
-        <v>623.85178035214994</v>
+        <f t="shared" si="7"/>
+        <v>671.84037884077679</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -8367,12 +8380,12 @@
         <v>4707.31707837467</v>
       </c>
       <c r="D200">
-        <f>C200*$J$2</f>
+        <f t="shared" si="6"/>
         <v>956.52683032573293</v>
       </c>
       <c r="E200">
-        <f t="shared" si="3"/>
-        <v>621.74243971172643</v>
+        <f t="shared" si="7"/>
+        <v>669.56878122801299</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -8386,12 +8399,12 @@
         <v>4719.1234564308998</v>
       </c>
       <c r="D201">
-        <f>C201*$J$2</f>
+        <f t="shared" si="6"/>
         <v>958.92588634675883</v>
       </c>
       <c r="E201">
-        <f t="shared" si="3"/>
-        <v>623.30182612539329</v>
+        <f t="shared" si="7"/>
+        <v>671.24812044273119</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -8405,12 +8418,12 @@
         <v>4710.4525379910701</v>
       </c>
       <c r="D202">
-        <f>C202*$J$2</f>
+        <f t="shared" si="6"/>
         <v>957.16395571978546</v>
       </c>
       <c r="E202">
-        <f t="shared" si="3"/>
-        <v>622.15657121786057</v>
+        <f t="shared" si="7"/>
+        <v>670.01476900384978</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -8424,12 +8437,12 @@
         <v>4711.1268714502703</v>
       </c>
       <c r="D203">
-        <f>C203*$J$2</f>
+        <f t="shared" si="6"/>
         <v>957.30098027869485</v>
       </c>
       <c r="E203">
-        <f t="shared" si="3"/>
-        <v>622.24563718115166</v>
+        <f t="shared" si="7"/>
+        <v>670.11068619508637</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -8443,12 +8456,12 @@
         <v>4725.9196341276502</v>
       </c>
       <c r="D204">
-        <f>C204*$J$2</f>
+        <f t="shared" si="6"/>
         <v>960.30686965473842</v>
       </c>
       <c r="E204">
-        <f t="shared" si="3"/>
-        <v>624.19946527558</v>
+        <f t="shared" si="7"/>
+        <v>672.21480875831685</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -8462,12 +8475,12 @@
         <v>4714.1893132094201</v>
       </c>
       <c r="D205">
-        <f>C205*$J$2</f>
+        <f t="shared" si="6"/>
         <v>957.92326844415413</v>
       </c>
       <c r="E205">
-        <f t="shared" si="3"/>
-        <v>622.65012448870016</v>
+        <f t="shared" si="7"/>
+        <v>670.54628791090784</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -8481,12 +8494,12 @@
         <v>4722.4501235187399</v>
       </c>
       <c r="D206">
-        <f>C206*$J$2</f>
+        <f t="shared" si="6"/>
         <v>959.60186509900791</v>
       </c>
       <c r="E206">
-        <f t="shared" si="3"/>
-        <v>623.74121231435515</v>
+        <f t="shared" si="7"/>
+        <v>671.72130556930551</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -8500,12 +8513,12 @@
         <v>4732.7121792659</v>
       </c>
       <c r="D207">
-        <f>C207*$J$2</f>
+        <f t="shared" si="6"/>
         <v>961.68711482683079</v>
       </c>
       <c r="E207">
-        <f t="shared" si="3"/>
-        <v>625.09662463744007</v>
+        <f t="shared" si="7"/>
+        <v>673.18098037878156</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -8519,12 +8532,12 @@
         <v>4714.8867507444102</v>
       </c>
       <c r="D208">
-        <f>C208*$J$2</f>
+        <f t="shared" si="6"/>
         <v>958.06498775126408</v>
       </c>
       <c r="E208">
-        <f t="shared" si="3"/>
-        <v>622.74224203832171</v>
+        <f t="shared" si="7"/>
+        <v>670.64549142588487</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -8538,12 +8551,12 @@
         <v>4717.8581481783503</v>
       </c>
       <c r="D209">
-        <f>C209*$J$2</f>
+        <f t="shared" si="6"/>
         <v>958.6687757098407</v>
       </c>
       <c r="E209">
-        <f t="shared" si="3"/>
-        <v>623.13470421139652</v>
+        <f t="shared" si="7"/>
+        <v>671.06814299688847</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -8557,12 +8570,12 @@
         <v>4729.0748109411797</v>
       </c>
       <c r="D210">
-        <f>C210*$J$2</f>
+        <f t="shared" si="6"/>
         <v>960.94800158324767</v>
       </c>
       <c r="E210">
-        <f t="shared" si="3"/>
-        <v>624.61620102911104</v>
+        <f t="shared" si="7"/>
+        <v>672.66360110827338</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -8576,12 +8589,12 @@
         <v>4721.5389674975104</v>
       </c>
       <c r="D211">
-        <f>C211*$J$2</f>
+        <f t="shared" si="6"/>
         <v>959.41671819549413</v>
       </c>
       <c r="E211">
-        <f t="shared" si="3"/>
-        <v>623.62086682707115</v>
+        <f t="shared" si="7"/>
+        <v>671.59170273684583</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -8595,12 +8608,12 @@
         <v>4739.5057735505698</v>
       </c>
       <c r="D212">
-        <f>C212*$J$2</f>
+        <f t="shared" si="6"/>
         <v>963.06757318547568</v>
       </c>
       <c r="E212">
-        <f t="shared" si="3"/>
-        <v>625.99392257055922</v>
+        <f t="shared" si="7"/>
+        <v>674.14730122983292</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -8614,12 +8627,12 @@
         <v>4735.6924002814903</v>
       </c>
       <c r="D213">
-        <f>C213*$J$2</f>
+        <f t="shared" si="6"/>
         <v>962.29269573719876</v>
       </c>
       <c r="E213">
-        <f t="shared" si="3"/>
-        <v>625.49025222917919</v>
+        <f t="shared" si="7"/>
+        <v>673.60488701603913</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -8633,12 +8646,12 @@
         <v>4721.4711908791896</v>
       </c>
       <c r="D214">
-        <f>C214*$J$2</f>
+        <f t="shared" si="6"/>
         <v>959.40294598665128</v>
       </c>
       <c r="E214">
-        <f t="shared" si="3"/>
-        <v>623.61191489132329</v>
+        <f t="shared" si="7"/>
+        <v>671.58206219065585</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -8652,12 +8665,12 @@
         <v>4725.0639945809698</v>
       </c>
       <c r="D215">
-        <f>C215*$J$2</f>
+        <f t="shared" si="6"/>
         <v>960.13300369885303</v>
       </c>
       <c r="E215">
-        <f t="shared" si="3"/>
-        <v>624.08645240425449</v>
+        <f t="shared" si="7"/>
+        <v>672.09310258919709</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -8671,12 +8684,12 @@
         <v>4732.7727818882404</v>
       </c>
       <c r="D216">
-        <f>C216*$J$2</f>
+        <f t="shared" si="6"/>
         <v>961.69942927969043</v>
       </c>
       <c r="E216">
-        <f t="shared" si="3"/>
-        <v>625.10462903179882</v>
+        <f t="shared" si="7"/>
+        <v>673.18960049578322</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -8690,12 +8703,12 @@
         <v>4742.3083863040601</v>
       </c>
       <c r="D217">
-        <f>C217*$J$2</f>
+        <f t="shared" si="6"/>
         <v>963.637064096985</v>
       </c>
       <c r="E217">
-        <f t="shared" si="3"/>
-        <v>626.36409166304031</v>
+        <f t="shared" si="7"/>
+        <v>674.54594486788949</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -8709,12 +8722,12 @@
         <v>4725.0389889634998</v>
       </c>
       <c r="D218">
-        <f>C218*$J$2</f>
+        <f t="shared" si="6"/>
         <v>960.12792255738316</v>
       </c>
       <c r="E218">
-        <f t="shared" si="3"/>
-        <v>624.08314966229909</v>
+        <f t="shared" si="7"/>
+        <v>672.08954579016813</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -8728,12 +8741,12 @@
         <v>4739.2101317243596</v>
       </c>
       <c r="D219">
-        <f>C219*$J$2</f>
+        <f t="shared" si="6"/>
         <v>963.00749876638986</v>
       </c>
       <c r="E219">
-        <f t="shared" si="3"/>
-        <v>625.95487419815345</v>
+        <f t="shared" si="7"/>
+        <v>674.10524913647282</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -8747,12 +8760,12 @@
         <v>4728.5269490598803</v>
       </c>
       <c r="D220">
-        <f>C220*$J$2</f>
+        <f t="shared" si="6"/>
         <v>960.83667604896766</v>
       </c>
       <c r="E220">
-        <f t="shared" si="3"/>
-        <v>624.54383943182904</v>
+        <f t="shared" si="7"/>
+        <v>672.58567323427735</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -8766,12 +8779,12 @@
         <v>4748.9273554750198</v>
       </c>
       <c r="D221">
-        <f>C221*$J$2</f>
+        <f t="shared" si="6"/>
         <v>964.982038632524</v>
       </c>
       <c r="E221">
-        <f t="shared" si="3"/>
-        <v>627.23832511114063</v>
+        <f t="shared" si="7"/>
+        <v>675.48742704276674</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -8785,12 +8798,12 @@
         <v>4745.6428427812698</v>
       </c>
       <c r="D222">
-        <f>C222*$J$2</f>
+        <f t="shared" si="6"/>
         <v>964.31462565315394</v>
       </c>
       <c r="E222">
-        <f t="shared" si="3"/>
-        <v>626.80450667455011</v>
+        <f t="shared" si="7"/>
+        <v>675.02023795720777</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -8804,12 +8817,12 @@
         <v>4731.9394582144296</v>
       </c>
       <c r="D223">
-        <f>C223*$J$2</f>
+        <f t="shared" si="6"/>
         <v>961.53009790917201</v>
       </c>
       <c r="E223">
-        <f t="shared" si="3"/>
-        <v>624.99456364096181</v>
+        <f t="shared" si="7"/>
+        <v>673.0710685364204</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -8823,12 +8836,12 @@
         <v>4743.2859319461504</v>
       </c>
       <c r="D224">
-        <f>C224*$J$2</f>
+        <f t="shared" si="6"/>
         <v>963.83570137145773</v>
       </c>
       <c r="E224">
-        <f t="shared" si="3"/>
-        <v>626.49320589144759</v>
+        <f t="shared" si="7"/>
+        <v>674.6849909600204</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -8842,12 +8855,12 @@
         <v>4736.0650551368399</v>
       </c>
       <c r="D225">
-        <f>C225*$J$2</f>
+        <f t="shared" si="6"/>
         <v>962.36841920380584</v>
       </c>
       <c r="E225">
-        <f t="shared" si="3"/>
-        <v>625.5394724824738</v>
+        <f t="shared" si="7"/>
+        <v>673.65789344266409</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -8861,12 +8874,12 @@
         <v>4752.07627817708</v>
       </c>
       <c r="D226">
-        <f>C226*$J$2</f>
+        <f t="shared" si="6"/>
         <v>965.62189972558258</v>
       </c>
       <c r="E226">
-        <f t="shared" si="3"/>
-        <v>627.65423482162873</v>
+        <f t="shared" si="7"/>
+        <v>675.93532980790781</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -8880,12 +8893,12 @@
         <v>4735.3116115417197</v>
       </c>
       <c r="D227">
-        <f>C227*$J$2</f>
+        <f t="shared" si="6"/>
         <v>962.21531946527739</v>
       </c>
       <c r="E227">
-        <f t="shared" si="3"/>
-        <v>625.43995765243028</v>
+        <f t="shared" si="7"/>
+        <v>673.5507236256941</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -8899,12 +8912,12 @@
         <v>4749.5293629791104</v>
       </c>
       <c r="D228">
-        <f>C228*$J$2</f>
+        <f t="shared" si="6"/>
         <v>965.10436655735521</v>
       </c>
       <c r="E228">
-        <f t="shared" si="3"/>
-        <v>627.31783826228093</v>
+        <f t="shared" si="7"/>
+        <v>675.57305659014855</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -8918,12 +8931,12 @@
         <v>4739.3184838362504</v>
       </c>
       <c r="D229">
-        <f>C229*$J$2</f>
+        <f t="shared" si="6"/>
         <v>963.02951591552608</v>
       </c>
       <c r="E229">
-        <f t="shared" si="3"/>
-        <v>625.969185345092</v>
+        <f t="shared" si="7"/>
+        <v>674.12066114086826</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -8937,12 +8950,12 @@
         <v>4758.51490504906</v>
       </c>
       <c r="D230">
-        <f>C230*$J$2</f>
+        <f t="shared" si="6"/>
         <v>966.93022870596894</v>
       </c>
       <c r="E230">
-        <f t="shared" si="3"/>
-        <v>628.50464865887989</v>
+        <f t="shared" si="7"/>
+        <v>676.85116009417823</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -8956,12 +8969,12 @@
         <v>4738.65212643828</v>
       </c>
       <c r="D231">
-        <f>C231*$J$2</f>
+        <f t="shared" si="6"/>
         <v>962.89411209225841</v>
       </c>
       <c r="E231">
-        <f t="shared" si="3"/>
-        <v>625.88117285996793</v>
+        <f t="shared" si="7"/>
+        <v>674.02587846458084</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -8975,12 +8988,12 @@
         <v>4755.7709390644504</v>
       </c>
       <c r="D232">
-        <f>C232*$J$2</f>
+        <f t="shared" si="6"/>
         <v>966.37265481789632</v>
       </c>
       <c r="E232">
-        <f t="shared" si="3"/>
-        <v>628.14222563163264</v>
+        <f t="shared" si="7"/>
+        <v>676.46085837252735</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -8994,12 +9007,12 @@
         <v>4742.5270316875803</v>
       </c>
       <c r="D233">
-        <f>C233*$J$2</f>
+        <f t="shared" si="6"/>
         <v>963.68149283891626</v>
       </c>
       <c r="E233">
-        <f t="shared" si="3"/>
-        <v>626.39297034529557</v>
+        <f t="shared" si="7"/>
+        <v>674.57704498724138</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -9013,12 +9026,12 @@
         <v>4753.9889388420297</v>
       </c>
       <c r="D234">
-        <f>C234*$J$2</f>
+        <f t="shared" si="6"/>
         <v>966.01055237270043</v>
       </c>
       <c r="E234">
-        <f t="shared" si="3"/>
-        <v>627.90685904225529</v>
+        <f t="shared" si="7"/>
+        <v>676.20738666089028</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -9032,12 +9045,12 @@
         <v>4747.1865760248802</v>
       </c>
       <c r="D235">
-        <f>C235*$J$2</f>
+        <f t="shared" si="6"/>
         <v>964.62831224825561</v>
       </c>
       <c r="E235">
-        <f t="shared" si="3"/>
-        <v>627.00840296136619</v>
+        <f t="shared" si="7"/>
+        <v>675.23981857377885</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -9051,12 +9064,12 @@
         <v>4762.0158643177001</v>
       </c>
       <c r="D236">
-        <f>C236*$J$2</f>
+        <f t="shared" si="6"/>
         <v>967.64162362935667</v>
       </c>
       <c r="E236">
-        <f t="shared" si="3"/>
-        <v>628.96705535908188</v>
+        <f t="shared" si="7"/>
+        <v>677.34913654054958</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -9070,12 +9083,12 @@
         <v>4745.7003030526903</v>
       </c>
       <c r="D237">
-        <f>C237*$J$2</f>
+        <f t="shared" si="6"/>
         <v>964.32630158030668</v>
       </c>
       <c r="E237">
-        <f t="shared" si="3"/>
-        <v>626.81209602719935</v>
+        <f t="shared" si="7"/>
+        <v>675.02841110621466</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -9089,12 +9102,12 @@
         <v>4760.0319443732196</v>
       </c>
       <c r="D238">
-        <f>C238*$J$2</f>
+        <f t="shared" si="6"/>
         <v>967.2384910966382</v>
       </c>
       <c r="E238">
-        <f t="shared" si="3"/>
-        <v>628.70501921281482</v>
+        <f t="shared" si="7"/>
+        <v>677.06694376764665</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -9108,12 +9121,12 @@
         <v>4768.2684622303104</v>
       </c>
       <c r="D239">
-        <f>C239*$J$2</f>
+        <f t="shared" si="6"/>
         <v>968.91215152519908</v>
       </c>
       <c r="E239">
-        <f t="shared" si="3"/>
-        <v>629.79289849137945</v>
+        <f t="shared" si="7"/>
+        <v>678.23850606763926</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -9127,12 +9140,12 @@
         <v>4750.2272533965497</v>
       </c>
       <c r="D240">
-        <f>C240*$J$2</f>
+        <f t="shared" si="6"/>
         <v>965.24617789017884</v>
       </c>
       <c r="E240">
-        <f t="shared" si="3"/>
-        <v>627.41001562861629</v>
+        <f t="shared" si="7"/>
+        <v>675.6723245231251</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -9146,12 +9159,12 @@
         <v>4748.8465883112303</v>
       </c>
       <c r="D241">
-        <f>C241*$J$2</f>
+        <f t="shared" si="6"/>
         <v>964.96562674484198</v>
       </c>
       <c r="E241">
-        <f t="shared" si="3"/>
-        <v>627.22765738414728</v>
+        <f t="shared" si="7"/>
+        <v>675.4759387213893</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -9165,12 +9178,12 @@
         <v>4766.07619892611</v>
       </c>
       <c r="D242">
-        <f>C242*$J$2</f>
+        <f t="shared" si="6"/>
         <v>968.46668362178548</v>
       </c>
       <c r="E242">
-        <f t="shared" si="3"/>
-        <v>629.50334435416062</v>
+        <f t="shared" si="7"/>
+        <v>677.92667853524983</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -9184,12 +9197,12 @@
         <v>4753.2287990788</v>
       </c>
       <c r="D243">
-        <f>C243*$J$2</f>
+        <f t="shared" si="6"/>
         <v>965.85609197281212</v>
       </c>
       <c r="E243">
-        <f t="shared" si="3"/>
-        <v>627.80645978232792</v>
+        <f t="shared" si="7"/>
+        <v>676.09926438096841</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -9203,12 +9216,12 @@
         <v>4772.1267202999497</v>
       </c>
       <c r="D244">
-        <f>C244*$J$2</f>
+        <f t="shared" si="6"/>
         <v>969.69614956494979</v>
       </c>
       <c r="E244">
-        <f t="shared" si="3"/>
-        <v>630.30249721721736</v>
+        <f t="shared" si="7"/>
+        <v>678.78730469546485</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -9222,12 +9235,12 @@
         <v>4758.4221089456896</v>
       </c>
       <c r="D245">
-        <f>C245*$J$2</f>
+        <f t="shared" si="6"/>
         <v>966.91137253776412</v>
       </c>
       <c r="E245">
-        <f t="shared" si="3"/>
-        <v>628.49239214954673</v>
+        <f t="shared" si="7"/>
+        <v>676.8379607764349</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -9241,12 +9254,12 @@
         <v>4756.2003084826702</v>
       </c>
       <c r="D246">
-        <f>C246*$J$2</f>
+        <f t="shared" si="6"/>
         <v>966.45990268367859</v>
       </c>
       <c r="E246">
-        <f t="shared" si="3"/>
-        <v>628.19893674439106</v>
+        <f t="shared" si="7"/>
+        <v>676.52193187857495</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -9260,12 +9273,12 @@
         <v>4778.1876641101398</v>
       </c>
       <c r="D247">
-        <f>C247*$J$2</f>
+        <f t="shared" si="6"/>
         <v>970.92773334718038</v>
       </c>
       <c r="E247">
-        <f t="shared" si="3"/>
-        <v>631.10302667566725</v>
+        <f t="shared" si="7"/>
+        <v>679.64941334302625</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -9279,12 +9292,12 @@
         <v>4770.7167642281902</v>
       </c>
       <c r="D248">
-        <f>C248*$J$2</f>
+        <f t="shared" si="6"/>
         <v>969.40964649116825</v>
       </c>
       <c r="E248">
-        <f t="shared" si="3"/>
-        <v>630.11627021925938</v>
+        <f t="shared" si="7"/>
+        <v>678.58675254381774</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -9298,12 +9311,12 @@
         <v>4761.2472645247699</v>
       </c>
       <c r="D249">
-        <f>C249*$J$2</f>
+        <f t="shared" si="6"/>
         <v>967.48544415143317</v>
       </c>
       <c r="E249">
-        <f t="shared" si="3"/>
-        <v>628.86553869843158</v>
+        <f t="shared" si="7"/>
+        <v>677.23981090600319</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -9317,12 +9330,12 @@
         <v>4759.1496257498502</v>
       </c>
       <c r="D250">
-        <f>C250*$J$2</f>
+        <f t="shared" si="6"/>
         <v>967.05920395236956</v>
       </c>
       <c r="E250">
-        <f t="shared" si="3"/>
-        <v>628.58848256904025</v>
+        <f t="shared" si="7"/>
+        <v>676.94144276665861</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -9336,12 +9349,12 @@
         <v>4784.2623880637702</v>
       </c>
       <c r="D251">
-        <f>C251*$J$2</f>
+        <f t="shared" si="6"/>
         <v>972.1621172545581</v>
       </c>
       <c r="E251">
-        <f t="shared" si="3"/>
-        <v>631.90537621546275</v>
+        <f t="shared" si="7"/>
+        <v>680.51348207819058</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -9355,12 +9368,12 @@
         <v>4776.5576213631703</v>
       </c>
       <c r="D252">
-        <f>C252*$J$2</f>
+        <f t="shared" si="6"/>
         <v>970.59650866099616</v>
       </c>
       <c r="E252">
-        <f t="shared" si="3"/>
-        <v>630.88773062964754</v>
+        <f t="shared" si="7"/>
+        <v>679.41755606269726</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -9374,12 +9387,12 @@
         <v>4764.0391827073599</v>
       </c>
       <c r="D253">
-        <f>C253*$J$2</f>
+        <f t="shared" si="6"/>
         <v>968.05276192613553</v>
       </c>
       <c r="E253">
-        <f t="shared" si="3"/>
-        <v>629.2342952519881</v>
+        <f t="shared" si="7"/>
+        <v>677.63693334829486</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -9393,12 +9406,12 @@
         <v>4782.40794799385</v>
       </c>
       <c r="D254">
-        <f>C254*$J$2</f>
+        <f t="shared" si="6"/>
         <v>971.78529503235029</v>
       </c>
       <c r="E254">
-        <f t="shared" si="3"/>
-        <v>631.66044177102776</v>
+        <f t="shared" si="7"/>
+        <v>680.24970652264517</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -9412,12 +9425,12 @@
         <v>4769.76468904579</v>
       </c>
       <c r="D255">
-        <f>C255*$J$2</f>
+        <f t="shared" si="6"/>
         <v>969.21618481410451</v>
       </c>
       <c r="E255">
-        <f t="shared" si="3"/>
-        <v>629.99052012916798</v>
+        <f t="shared" si="7"/>
+        <v>678.45132936987306</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -9431,12 +9444,12 @@
         <v>4766.8064362939504</v>
       </c>
       <c r="D256">
-        <f>C256*$J$2</f>
+        <f t="shared" si="6"/>
         <v>968.61506785493066</v>
       </c>
       <c r="E256">
-        <f t="shared" si="3"/>
-        <v>629.59979410570497</v>
+        <f t="shared" si="7"/>
+        <v>678.03054749845137</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -9450,12 +9463,12 @@
         <v>4788.27170807529</v>
       </c>
       <c r="D257">
-        <f>C257*$J$2</f>
+        <f t="shared" si="6"/>
         <v>972.97681108089887</v>
       </c>
       <c r="E257">
-        <f t="shared" si="3"/>
-        <v>632.43492720258428</v>
+        <f t="shared" si="7"/>
+        <v>681.08376775662919</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -9469,12 +9482,12 @@
         <v>4781.5821125701104</v>
       </c>
       <c r="D258">
-        <f>C258*$J$2</f>
+        <f t="shared" ref="D258:D321" si="8">C258*$J$2</f>
         <v>971.61748527424641</v>
       </c>
       <c r="E258">
-        <f t="shared" si="3"/>
-        <v>631.55136542826017</v>
+        <f t="shared" si="7"/>
+        <v>680.13223969197247</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -9488,12 +9501,12 @@
         <v>4769.5564036289197</v>
       </c>
       <c r="D259">
-        <f>C259*$J$2</f>
+        <f t="shared" si="8"/>
         <v>969.17386121739639</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="4">D259*$K$2</f>
-        <v>629.96300979130763</v>
+        <f t="shared" ref="E259:E322" si="9">D259*$K$2</f>
+        <v>678.42170285217742</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -9507,12 +9520,12 @@
         <v>4772.3720396222798</v>
       </c>
       <c r="D260">
-        <f>C260*$J$2</f>
+        <f t="shared" si="8"/>
         <v>969.74599845124726</v>
       </c>
       <c r="E260">
-        <f t="shared" si="4"/>
-        <v>630.33489899331073</v>
+        <f t="shared" si="9"/>
+        <v>678.82219891587306</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -9526,12 +9539,12 @@
         <v>4794.1520872753699</v>
       </c>
       <c r="D261">
-        <f>C261*$J$2</f>
+        <f t="shared" si="8"/>
         <v>974.17170413435508</v>
       </c>
       <c r="E261">
-        <f t="shared" si="4"/>
-        <v>633.2116076873308</v>
+        <f t="shared" si="9"/>
+        <v>681.92019289404857</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -9545,12 +9558,12 @@
         <v>4787.21365119455</v>
       </c>
       <c r="D262">
-        <f>C262*$J$2</f>
+        <f t="shared" si="8"/>
         <v>972.76181392273247</v>
       </c>
       <c r="E262">
-        <f t="shared" si="4"/>
-        <v>632.29517904977615</v>
+        <f t="shared" si="9"/>
+        <v>680.93326974591264</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -9564,12 +9577,12 @@
         <v>4774.9521512745596</v>
       </c>
       <c r="D263">
-        <f>C263*$J$2</f>
+        <f t="shared" si="8"/>
         <v>970.27027713899042</v>
       </c>
       <c r="E263">
-        <f t="shared" si="4"/>
-        <v>630.67568014034384</v>
+        <f t="shared" si="9"/>
+        <v>679.18919399729327</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -9583,12 +9596,12 @@
         <v>4792.8581354476801</v>
       </c>
       <c r="D264">
-        <f>C264*$J$2</f>
+        <f t="shared" si="8"/>
         <v>973.90877312296857</v>
       </c>
       <c r="E264">
-        <f t="shared" si="4"/>
-        <v>633.0407025299296</v>
+        <f t="shared" si="9"/>
+        <v>681.73614118607793</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -9602,12 +9615,12 @@
         <v>4777.5130631455704</v>
       </c>
       <c r="D265">
-        <f>C265*$J$2</f>
+        <f t="shared" si="8"/>
         <v>970.79065443117986</v>
       </c>
       <c r="E265">
-        <f t="shared" si="4"/>
-        <v>631.01392538026698</v>
+        <f t="shared" si="9"/>
+        <v>679.55345810182587</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -9621,12 +9634,12 @@
         <v>4798.5193146808097</v>
       </c>
       <c r="D266">
-        <f>C266*$J$2</f>
+        <f t="shared" si="8"/>
         <v>975.0591247431405</v>
       </c>
       <c r="E266">
-        <f t="shared" si="4"/>
-        <v>633.78843108304136</v>
+        <f t="shared" si="9"/>
+        <v>682.54138732019828</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -9640,12 +9653,12 @@
         <v>4780.0616798055398</v>
       </c>
       <c r="D267">
-        <f>C267*$J$2</f>
+        <f t="shared" si="8"/>
         <v>971.30853333648565</v>
       </c>
       <c r="E267">
-        <f t="shared" si="4"/>
-        <v>631.35054666871565</v>
+        <f t="shared" si="9"/>
+        <v>679.91597333553989</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -9659,12 +9672,12 @@
         <v>4792.6256349490204</v>
       </c>
       <c r="D268">
-        <f>C268*$J$2</f>
+        <f t="shared" si="8"/>
         <v>973.86152902164088</v>
       </c>
       <c r="E268">
-        <f t="shared" si="4"/>
-        <v>633.00999386406659</v>
+        <f t="shared" si="9"/>
+        <v>681.70307031514858</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -9678,12 +9691,12 @@
         <v>4783.59463198504</v>
       </c>
       <c r="D269">
-        <f>C269*$J$2</f>
+        <f t="shared" si="8"/>
         <v>972.02642921936012</v>
       </c>
       <c r="E269">
-        <f t="shared" si="4"/>
-        <v>631.8171789925841</v>
+        <f t="shared" si="9"/>
+        <v>680.41850045355204</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -9697,12 +9710,12 @@
         <v>4804.2001821821596</v>
       </c>
       <c r="D270">
-        <f>C270*$J$2</f>
+        <f t="shared" si="8"/>
         <v>976.21347701941477</v>
       </c>
       <c r="E270">
-        <f t="shared" si="4"/>
-        <v>634.53876006261964</v>
+        <f t="shared" si="9"/>
+        <v>683.34943391359025</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -9716,12 +9729,12 @@
         <v>4798.04213629889</v>
       </c>
       <c r="D271">
-        <f>C271*$J$2</f>
+        <f t="shared" si="8"/>
         <v>974.96216209593445</v>
       </c>
       <c r="E271">
-        <f t="shared" si="4"/>
-        <v>633.72540536235738</v>
+        <f t="shared" si="9"/>
+        <v>682.47351346715402</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -9735,12 +9748,12 @@
         <v>4785.96123127788</v>
       </c>
       <c r="D272">
-        <f>C272*$J$2</f>
+        <f t="shared" si="8"/>
         <v>972.50732219566521</v>
       </c>
       <c r="E272">
-        <f t="shared" si="4"/>
-        <v>632.12975942718242</v>
+        <f t="shared" si="9"/>
+        <v>680.75512553696558</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -9754,12 +9767,12 @@
         <v>4803.4753172152396</v>
       </c>
       <c r="D273">
-        <f>C273*$J$2</f>
+        <f t="shared" si="8"/>
         <v>976.0661844581366</v>
       </c>
       <c r="E273">
-        <f t="shared" si="4"/>
-        <v>634.44301989778876</v>
+        <f t="shared" si="9"/>
+        <v>683.24632912069558</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -9773,12 +9786,12 @@
         <v>4788.3141493741496</v>
       </c>
       <c r="D274">
-        <f>C274*$J$2</f>
+        <f t="shared" si="8"/>
         <v>972.98543515282711</v>
       </c>
       <c r="E274">
-        <f t="shared" si="4"/>
-        <v>632.44053284933761</v>
+        <f t="shared" si="9"/>
+        <v>681.08980460697899</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -9792,12 +9805,12 @@
         <v>4808.9286907563601</v>
       </c>
       <c r="D275">
-        <f>C275*$J$2</f>
+        <f t="shared" si="8"/>
         <v>977.1743099616923</v>
       </c>
       <c r="E275">
-        <f t="shared" si="4"/>
-        <v>635.16330147510007</v>
+        <f t="shared" si="9"/>
+        <v>684.02201697318458</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -9811,12 +9824,12 @@
         <v>4790.6598137620504</v>
       </c>
       <c r="D276">
-        <f>C276*$J$2</f>
+        <f t="shared" si="8"/>
         <v>973.46207415644858</v>
       </c>
       <c r="E276">
-        <f t="shared" si="4"/>
-        <v>632.75034820169162</v>
+        <f t="shared" si="9"/>
+        <v>681.42345190951391</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -9830,12 +9843,12 @@
         <v>4803.8442879030699</v>
       </c>
       <c r="D277">
-        <f>C277*$J$2</f>
+        <f t="shared" si="8"/>
         <v>976.14115930190371</v>
       </c>
       <c r="E277">
-        <f t="shared" si="4"/>
-        <v>634.49175354623742</v>
+        <f t="shared" si="9"/>
+        <v>683.29881151133259</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -9849,12 +9862,12 @@
         <v>4794.9076462343901</v>
       </c>
       <c r="D278">
-        <f>C278*$J$2</f>
+        <f t="shared" si="8"/>
         <v>974.32523371482807</v>
       </c>
       <c r="E278">
-        <f t="shared" si="4"/>
-        <v>633.31140191463828</v>
+        <f t="shared" si="9"/>
+        <v>682.02766360037958</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -9868,12 +9881,12 @@
         <v>4814.40503863495</v>
       </c>
       <c r="D279">
-        <f>C279*$J$2</f>
+        <f t="shared" si="8"/>
         <v>978.28710385062175</v>
       </c>
       <c r="E279">
-        <f t="shared" si="4"/>
-        <v>635.88661750290419</v>
+        <f t="shared" si="9"/>
+        <v>684.80097269543523</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -9887,12 +9900,12 @@
         <v>4809.0402860181302</v>
       </c>
       <c r="D280">
-        <f>C280*$J$2</f>
+        <f t="shared" si="8"/>
         <v>977.19698611888407</v>
       </c>
       <c r="E280">
-        <f t="shared" si="4"/>
-        <v>635.17804097727469</v>
+        <f t="shared" si="9"/>
+        <v>684.03789028321876</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -9906,12 +9919,12 @@
         <v>4797.0595234233397</v>
       </c>
       <c r="D281">
-        <f>C281*$J$2</f>
+        <f t="shared" si="8"/>
         <v>974.76249515962263</v>
       </c>
       <c r="E281">
-        <f t="shared" si="4"/>
-        <v>633.59562185375478</v>
+        <f t="shared" si="9"/>
+        <v>682.33374661173582</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -9925,12 +9938,12 @@
         <v>4814.2569354458201</v>
       </c>
       <c r="D282">
-        <f>C282*$J$2</f>
+        <f t="shared" si="8"/>
         <v>978.25700928259062</v>
       </c>
       <c r="E282">
-        <f t="shared" si="4"/>
-        <v>635.86705603368387</v>
+        <f t="shared" si="9"/>
+        <v>684.77990649781339</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -9944,12 +9957,12 @@
         <v>4799.2032521045603</v>
       </c>
       <c r="D283">
-        <f>C283*$J$2</f>
+        <f t="shared" si="8"/>
         <v>975.19810082764661</v>
       </c>
       <c r="E283">
-        <f t="shared" si="4"/>
-        <v>633.87876553797037</v>
+        <f t="shared" si="9"/>
+        <v>682.63867057935261</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -9963,12 +9976,12 @@
         <v>4819.4974929567597</v>
       </c>
       <c r="D284">
-        <f>C284*$J$2</f>
+        <f t="shared" si="8"/>
         <v>979.3218905688135</v>
       </c>
       <c r="E284">
-        <f t="shared" si="4"/>
-        <v>636.55922886972883</v>
+        <f t="shared" si="9"/>
+        <v>685.52532339816946</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -9982,12 +9995,12 @@
         <v>4801.3447801740604</v>
       </c>
       <c r="D285">
-        <f>C285*$J$2</f>
+        <f t="shared" si="8"/>
         <v>975.633259331369</v>
       </c>
       <c r="E285">
-        <f t="shared" si="4"/>
-        <v>634.16161856538986</v>
+        <f t="shared" si="9"/>
+        <v>682.94328153195829</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -10001,12 +10014,12 @@
         <v>4824.7645109793202</v>
       </c>
       <c r="D286">
-        <f>C286*$J$2</f>
+        <f t="shared" si="8"/>
         <v>980.39214863099778</v>
       </c>
       <c r="E286">
-        <f t="shared" si="4"/>
-        <v>637.25489661014853</v>
+        <f t="shared" si="9"/>
+        <v>686.27450404169838</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -10020,12 +10033,12 @@
         <v>4806.30326078499</v>
       </c>
       <c r="D287">
-        <f>C287*$J$2</f>
+        <f t="shared" si="8"/>
         <v>976.64082259150996</v>
       </c>
       <c r="E287">
-        <f t="shared" si="4"/>
-        <v>634.81653468448144</v>
+        <f t="shared" si="9"/>
+        <v>683.64857581405693</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -10039,12 +10052,12 @@
         <v>4830.0598859778302</v>
       </c>
       <c r="D288">
-        <f>C288*$J$2</f>
+        <f t="shared" si="8"/>
         <v>981.46816883069505</v>
       </c>
       <c r="E288">
-        <f t="shared" si="4"/>
-        <v>637.95430973995178</v>
+        <f t="shared" si="9"/>
+        <v>687.02771818148653</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -10058,12 +10071,12 @@
         <v>4820.2046307652299</v>
       </c>
       <c r="D289">
-        <f>C289*$J$2</f>
+        <f t="shared" si="8"/>
         <v>979.46558097149466</v>
       </c>
       <c r="E289">
-        <f t="shared" si="4"/>
-        <v>636.65262763147155</v>
+        <f t="shared" si="9"/>
+        <v>685.62590668004623</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -10077,12 +10090,12 @@
         <v>4808.2397196088295</v>
       </c>
       <c r="D290">
-        <f>C290*$J$2</f>
+        <f t="shared" si="8"/>
         <v>977.03431102451407</v>
       </c>
       <c r="E290">
-        <f t="shared" si="4"/>
-        <v>635.07230216593416</v>
+        <f t="shared" si="9"/>
+        <v>683.92401771715981</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -10096,12 +10109,12 @@
         <v>4825.1998011548603</v>
       </c>
       <c r="D291">
-        <f>C291*$J$2</f>
+        <f t="shared" si="8"/>
         <v>980.48059959466752</v>
       </c>
       <c r="E291">
-        <f t="shared" si="4"/>
-        <v>637.31238973653387</v>
+        <f t="shared" si="9"/>
+        <v>686.33641971626719</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -10115,12 +10128,12 @@
         <v>4810.17353635365</v>
       </c>
       <c r="D292">
-        <f>C292*$J$2</f>
+        <f t="shared" si="8"/>
         <v>977.42726258706159</v>
       </c>
       <c r="E292">
-        <f t="shared" si="4"/>
-        <v>635.32772068159011</v>
+        <f t="shared" si="9"/>
+        <v>684.19908381094308</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -10134,12 +10147,12 @@
         <v>4830.2227902557497</v>
       </c>
       <c r="D293">
-        <f>C293*$J$2</f>
+        <f t="shared" si="8"/>
         <v>981.50127097996835</v>
       </c>
       <c r="E293">
-        <f t="shared" si="4"/>
-        <v>637.97582613697944</v>
+        <f t="shared" si="9"/>
+        <v>687.05088968597784</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -10153,12 +10166,12 @@
         <v>4812.1101811301996</v>
       </c>
       <c r="D294">
-        <f>C294*$J$2</f>
+        <f t="shared" si="8"/>
         <v>977.82078880565655</v>
       </c>
       <c r="E294">
-        <f t="shared" si="4"/>
-        <v>635.58351272367679</v>
+        <f t="shared" si="9"/>
+        <v>684.47455216395952</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -10172,12 +10185,12 @@
         <v>4835.2759055429797</v>
       </c>
       <c r="D295">
-        <f>C295*$J$2</f>
+        <f t="shared" si="8"/>
         <v>982.52806400633347</v>
       </c>
       <c r="E295">
-        <f t="shared" si="4"/>
-        <v>638.64324160411672</v>
+        <f t="shared" si="9"/>
+        <v>687.76964480443337</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -10191,12 +10204,12 @@
         <v>4817.7732507394003</v>
       </c>
       <c r="D296">
-        <f>C296*$J$2</f>
+        <f t="shared" si="8"/>
         <v>978.97152455024604</v>
       </c>
       <c r="E296">
-        <f t="shared" si="4"/>
-        <v>636.33149095765998</v>
+        <f t="shared" si="9"/>
+        <v>685.28006718517224</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -10210,12 +10223,12 @@
         <v>4840.3608247051798</v>
       </c>
       <c r="D297">
-        <f>C297*$J$2</f>
+        <f t="shared" si="8"/>
         <v>983.56131958009246</v>
       </c>
       <c r="E297">
-        <f t="shared" si="4"/>
-        <v>639.31485772706014</v>
+        <f t="shared" si="9"/>
+        <v>688.49292370606463</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -10229,12 +10242,12 @@
         <v>4831.5309789767198</v>
       </c>
       <c r="D298">
-        <f>C298*$J$2</f>
+        <f t="shared" si="8"/>
         <v>981.76709492806947</v>
       </c>
       <c r="E298">
-        <f t="shared" si="4"/>
-        <v>638.14861170324514</v>
+        <f t="shared" si="9"/>
+        <v>687.23696644964855</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -10248,12 +10261,12 @@
         <v>4819.4941232263</v>
       </c>
       <c r="D299">
-        <f>C299*$J$2</f>
+        <f t="shared" si="8"/>
         <v>979.32120583958408</v>
       </c>
       <c r="E299">
-        <f t="shared" si="4"/>
-        <v>636.55878379572971</v>
+        <f t="shared" si="9"/>
+        <v>685.52484408770886</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -10267,12 +10280,12 @@
         <v>4836.3000523832698</v>
       </c>
       <c r="D300">
-        <f>C300*$J$2</f>
+        <f t="shared" si="8"/>
         <v>982.73617064428038</v>
       </c>
       <c r="E300">
-        <f t="shared" si="4"/>
-        <v>638.77851091878222</v>
+        <f t="shared" si="9"/>
+        <v>687.91531945099621</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -10286,12 +10299,12 @@
         <v>4821.2177936136104</v>
       </c>
       <c r="D301">
-        <f>C301*$J$2</f>
+        <f t="shared" si="8"/>
         <v>979.67145566228555</v>
       </c>
       <c r="E301">
-        <f t="shared" si="4"/>
-        <v>636.78644618048565</v>
+        <f t="shared" si="9"/>
+        <v>685.7700189635998</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -10305,12 +10318,12 @@
         <v>4841.1010241327504</v>
       </c>
       <c r="D302">
-        <f>C302*$J$2</f>
+        <f t="shared" si="8"/>
         <v>983.71172810377482</v>
       </c>
       <c r="E302">
-        <f t="shared" si="4"/>
-        <v>639.41262326745368</v>
+        <f t="shared" si="9"/>
+        <v>688.59820967264238</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -10324,12 +10337,12 @@
         <v>4822.9492602578803</v>
       </c>
       <c r="D303">
-        <f>C303*$J$2</f>
+        <f t="shared" si="8"/>
         <v>980.02328968440122</v>
       </c>
       <c r="E303">
-        <f t="shared" si="4"/>
-        <v>637.01513829486078</v>
+        <f t="shared" si="9"/>
+        <v>686.01630277908077</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -10343,12 +10356,12 @@
         <v>4845.9359435276701</v>
       </c>
       <c r="D304">
-        <f>C304*$J$2</f>
+        <f t="shared" si="8"/>
         <v>984.69418372482255</v>
       </c>
       <c r="E304">
-        <f t="shared" si="4"/>
-        <v>640.05121942113465</v>
+        <f t="shared" si="9"/>
+        <v>689.28592860737569</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -10362,12 +10375,12 @@
         <v>4850.8062577836899</v>
       </c>
       <c r="D305">
-        <f>C305*$J$2</f>
+        <f t="shared" si="8"/>
         <v>985.68383158164579</v>
       </c>
       <c r="E305">
-        <f t="shared" si="4"/>
-        <v>640.69449052806976</v>
+        <f t="shared" si="9"/>
+        <v>689.97868210715205</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -10381,12 +10394,12 @@
         <v>4830.8146787866099</v>
       </c>
       <c r="D306">
-        <f>C306*$J$2</f>
+        <f t="shared" si="8"/>
         <v>981.62154272943906</v>
       </c>
       <c r="E306">
-        <f t="shared" si="4"/>
-        <v>638.05400277413537</v>
+        <f t="shared" si="9"/>
+        <v>687.13507991060726</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -10400,12 +10413,12 @@
         <v>4843.0143774877997</v>
       </c>
       <c r="D307">
-        <f>C307*$J$2</f>
+        <f t="shared" si="8"/>
         <v>984.10052150552087</v>
       </c>
       <c r="E307">
-        <f t="shared" si="4"/>
-        <v>639.66533897858858</v>
+        <f t="shared" si="9"/>
+        <v>688.87036505386459</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -10419,12 +10432,12 @@
         <v>4832.3284679620101</v>
       </c>
       <c r="D308">
-        <f>C308*$J$2</f>
+        <f t="shared" si="8"/>
         <v>981.92914468988045</v>
       </c>
       <c r="E308">
-        <f t="shared" si="4"/>
-        <v>638.25394404842234</v>
+        <f t="shared" si="9"/>
+        <v>687.35040128291632</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -10438,12 +10451,12 @@
         <v>4847.5531179038999</v>
       </c>
       <c r="D309">
-        <f>C309*$J$2</f>
+        <f t="shared" si="8"/>
         <v>985.02279355807241</v>
       </c>
       <c r="E309">
-        <f t="shared" si="4"/>
-        <v>640.26481581274709</v>
+        <f t="shared" si="9"/>
+        <v>689.51595549065064</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -10457,12 +10470,12 @@
         <v>4852.1279751943503</v>
       </c>
       <c r="D310">
-        <f>C310*$J$2</f>
+        <f t="shared" si="8"/>
         <v>985.95240455949192</v>
       </c>
       <c r="E310">
-        <f t="shared" si="4"/>
-        <v>640.86906296366976</v>
+        <f t="shared" si="9"/>
+        <v>690.16668319164432</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -10476,12 +10489,12 @@
         <v>4833.8549252861303</v>
       </c>
       <c r="D311">
-        <f>C311*$J$2</f>
+        <f t="shared" si="8"/>
         <v>982.23932081814166</v>
       </c>
       <c r="E311">
-        <f t="shared" si="4"/>
-        <v>638.45555853179212</v>
+        <f t="shared" si="9"/>
+        <v>687.56752457269909</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -10495,12 +10508,12 @@
         <v>4856.7407299782599</v>
       </c>
       <c r="D312">
-        <f>C312*$J$2</f>
+        <f t="shared" si="8"/>
         <v>986.88971633158235</v>
       </c>
       <c r="E312">
-        <f t="shared" si="4"/>
-        <v>641.47831561552857</v>
+        <f t="shared" si="9"/>
+        <v>690.82280143210755</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -10514,12 +10527,12 @@
         <v>4861.3925897127901</v>
       </c>
       <c r="D313">
-        <f>C313*$J$2</f>
+        <f t="shared" si="8"/>
         <v>987.83497422963887</v>
       </c>
       <c r="E313">
-        <f t="shared" si="4"/>
-        <v>642.09273324926528</v>
+        <f t="shared" si="9"/>
+        <v>691.48448196074719</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -10533,12 +10546,12 @@
         <v>4842.1930069331102</v>
       </c>
       <c r="D314">
-        <f>C314*$J$2</f>
+        <f t="shared" si="8"/>
         <v>983.93361900880791</v>
       </c>
       <c r="E314">
-        <f t="shared" si="4"/>
-        <v>639.55685235572514</v>
+        <f t="shared" si="9"/>
+        <v>688.75353330616554</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -10552,12 +10565,12 @@
         <v>4854.6490815367297</v>
       </c>
       <c r="D315">
-        <f>C315*$J$2</f>
+        <f t="shared" si="8"/>
         <v>986.4646933682634</v>
       </c>
       <c r="E315">
-        <f t="shared" si="4"/>
-        <v>641.20205068937128</v>
+        <f t="shared" si="9"/>
+        <v>690.52528535778436</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -10571,12 +10584,12 @@
         <v>4843.4976864686696</v>
       </c>
       <c r="D316">
-        <f>C316*$J$2</f>
+        <f t="shared" si="8"/>
         <v>984.19872989043358</v>
       </c>
       <c r="E316">
-        <f t="shared" si="4"/>
-        <v>639.7291744287819</v>
+        <f t="shared" si="9"/>
+        <v>688.93911092330347</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -10590,12 +10603,12 @@
         <v>4858.9536882836101</v>
       </c>
       <c r="D317">
-        <f>C317*$J$2</f>
+        <f t="shared" si="8"/>
         <v>987.33938945922955</v>
       </c>
       <c r="E317">
-        <f t="shared" si="4"/>
-        <v>641.77060314849928</v>
+        <f t="shared" si="9"/>
+        <v>691.13757262146066</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -10609,12 +10622,12 @@
         <v>4844.8197743851397</v>
       </c>
       <c r="D318">
-        <f>C318*$J$2</f>
+        <f t="shared" si="8"/>
         <v>984.46737815506037</v>
       </c>
       <c r="E318">
-        <f t="shared" si="4"/>
-        <v>639.90379580078923</v>
+        <f t="shared" si="9"/>
+        <v>689.12716470854218</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -10628,12 +10641,12 @@
         <v>4863.2987351224701</v>
       </c>
       <c r="D319">
-        <f>C319*$J$2</f>
+        <f t="shared" si="8"/>
         <v>988.22230297688589</v>
       </c>
       <c r="E319">
-        <f t="shared" si="4"/>
-        <v>642.34449693497584</v>
+        <f t="shared" si="9"/>
+        <v>691.7556120838201</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -10647,12 +10660,12 @@
         <v>4867.6857266037596</v>
       </c>
       <c r="D320">
-        <f>C320*$J$2</f>
+        <f t="shared" si="8"/>
         <v>989.11373964588392</v>
       </c>
       <c r="E320">
-        <f t="shared" si="4"/>
-        <v>642.92393076982455</v>
+        <f t="shared" si="9"/>
+        <v>692.37961775211875</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -10666,12 +10679,12 @@
         <v>4872.11562388943</v>
       </c>
       <c r="D321">
-        <f>C321*$J$2</f>
+        <f t="shared" si="8"/>
         <v>990.01389477433213</v>
       </c>
       <c r="E321">
-        <f t="shared" si="4"/>
-        <v>643.50903160331586</v>
+        <f t="shared" si="9"/>
+        <v>693.00972634203242</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -10685,12 +10698,12 @@
         <v>4876.5888762818004</v>
       </c>
       <c r="D322">
-        <f>C322*$J$2</f>
+        <f t="shared" ref="D322:D385" si="10">C322*$J$2</f>
         <v>990.92285966046177</v>
       </c>
       <c r="E322">
-        <f t="shared" si="4"/>
-        <v>644.09985877930012</v>
+        <f t="shared" si="9"/>
+        <v>693.64600176232318</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -10704,12 +10717,12 @@
         <v>4853.62044136656</v>
       </c>
       <c r="D323">
-        <f>C323*$J$2</f>
+        <f t="shared" si="10"/>
         <v>986.255673685685</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="5">D323*$K$2</f>
-        <v>641.06618789569529</v>
+        <f t="shared" ref="E323:E386" si="11">D323*$K$2</f>
+        <v>690.37897157997941</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -10723,12 +10736,12 @@
         <v>4854.7172922384498</v>
       </c>
       <c r="D324">
-        <f>C324*$J$2</f>
+        <f t="shared" si="10"/>
         <v>986.47855378285294</v>
       </c>
       <c r="E324">
-        <f t="shared" si="5"/>
-        <v>641.21105995885443</v>
+        <f t="shared" si="11"/>
+        <v>690.53498764799701</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -10742,12 +10755,12 @@
         <v>4870.4956924483304</v>
       </c>
       <c r="D325">
-        <f>C325*$J$2</f>
+        <f t="shared" si="10"/>
         <v>989.68472470550068</v>
       </c>
       <c r="E325">
-        <f t="shared" si="5"/>
-        <v>643.29507105857545</v>
+        <f t="shared" si="11"/>
+        <v>692.77930729385048</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -10761,12 +10774,12 @@
         <v>4855.8361260881702</v>
       </c>
       <c r="D326">
-        <f>C326*$J$2</f>
+        <f t="shared" si="10"/>
         <v>986.70590082111619</v>
       </c>
       <c r="E326">
-        <f t="shared" si="5"/>
-        <v>641.3588355337256</v>
+        <f t="shared" si="11"/>
+        <v>690.6941305747813</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -10780,12 +10793,12 @@
         <v>4874.6076832325198</v>
       </c>
       <c r="D327">
-        <f>C327*$J$2</f>
+        <f t="shared" si="10"/>
         <v>990.52028123284799</v>
       </c>
       <c r="E327">
-        <f t="shared" si="5"/>
-        <v>643.83818280135119</v>
+        <f t="shared" si="11"/>
+        <v>693.36419686299359</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -10799,12 +10812,12 @@
         <v>4878.7657285558298</v>
       </c>
       <c r="D328">
-        <f>C328*$J$2</f>
+        <f t="shared" si="10"/>
         <v>991.36519604254454</v>
       </c>
       <c r="E328">
-        <f t="shared" si="5"/>
-        <v>644.38737742765397</v>
+        <f t="shared" si="11"/>
+        <v>693.95563722978113</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -10818,12 +10831,12 @@
         <v>4882.9705397489497</v>
       </c>
       <c r="D329">
-        <f>C329*$J$2</f>
+        <f t="shared" si="10"/>
         <v>992.21961367698657</v>
       </c>
       <c r="E329">
-        <f t="shared" si="5"/>
-        <v>644.94274889004134</v>
+        <f t="shared" si="11"/>
+        <v>694.55372957389056</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -10837,12 +10850,12 @@
         <v>4887.2223431889597</v>
       </c>
       <c r="D330">
-        <f>C330*$J$2</f>
+        <f t="shared" si="10"/>
         <v>993.08358013599661</v>
       </c>
       <c r="E330">
-        <f t="shared" si="5"/>
-        <v>645.50432708839787</v>
+        <f t="shared" si="11"/>
+        <v>695.15850609519759</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -10856,12 +10869,12 @@
         <v>4865.0880739657396</v>
       </c>
       <c r="D331">
-        <f>C331*$J$2</f>
+        <f t="shared" si="10"/>
         <v>988.5858966298382</v>
       </c>
       <c r="E331">
-        <f t="shared" si="5"/>
-        <v>642.58083280939491</v>
+        <f t="shared" si="11"/>
+        <v>692.01012764088671</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -10875,12 +10888,12 @@
         <v>4865.9788832948298</v>
       </c>
       <c r="D332">
-        <f>C332*$J$2</f>
+        <f t="shared" si="10"/>
         <v>988.76690908550938</v>
       </c>
       <c r="E332">
-        <f t="shared" si="5"/>
-        <v>642.69849090558114</v>
+        <f t="shared" si="11"/>
+        <v>692.13683635985649</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -10894,12 +10907,12 @@
         <v>4866.8960515864501</v>
       </c>
       <c r="D333">
-        <f>C333*$J$2</f>
+        <f t="shared" si="10"/>
         <v>988.95327768236666</v>
       </c>
       <c r="E333">
-        <f t="shared" si="5"/>
-        <v>642.8196304935384</v>
+        <f t="shared" si="11"/>
+        <v>692.26729437765664</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -10913,12 +10926,12 @@
         <v>4882.1722806806101</v>
       </c>
       <c r="D334">
-        <f>C334*$J$2</f>
+        <f t="shared" si="10"/>
         <v>992.05740743429999</v>
       </c>
       <c r="E334">
-        <f t="shared" si="5"/>
-        <v>644.83731483229496</v>
+        <f t="shared" si="11"/>
+        <v>694.44018520400994</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -10932,12 +10945,12 @@
         <v>4886.0484688049601</v>
       </c>
       <c r="D335">
-        <f>C335*$J$2</f>
+        <f t="shared" si="10"/>
         <v>992.84504886116781</v>
       </c>
       <c r="E335">
-        <f t="shared" si="5"/>
-        <v>645.34928175975915</v>
+        <f t="shared" si="11"/>
+        <v>694.99153420281743</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -10951,12 +10964,12 @@
         <v>4889.9748461275103</v>
       </c>
       <c r="D336">
-        <f>C336*$J$2</f>
+        <f t="shared" si="10"/>
         <v>993.64288873311011</v>
       </c>
       <c r="E336">
-        <f t="shared" si="5"/>
-        <v>645.86787767652163</v>
+        <f t="shared" si="11"/>
+        <v>695.55002211317708</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -10970,12 +10983,12 @@
         <v>4893.9518740306103</v>
       </c>
       <c r="D337">
-        <f>C337*$J$2</f>
+        <f t="shared" si="10"/>
         <v>994.45102080302001</v>
       </c>
       <c r="E337">
-        <f t="shared" si="5"/>
-        <v>646.39316352196306</v>
+        <f t="shared" si="11"/>
+        <v>696.11571456211402</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -10989,12 +11002,12 @@
         <v>4897.9795558001297</v>
       </c>
       <c r="D338">
-        <f>C338*$J$2</f>
+        <f t="shared" si="10"/>
         <v>995.26944573858634</v>
       </c>
       <c r="E338">
-        <f t="shared" si="5"/>
-        <v>646.92513973008113</v>
+        <f t="shared" si="11"/>
+        <v>696.68861201701043</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -11008,12 +11021,12 @@
         <v>4877.27385080768</v>
       </c>
       <c r="D339">
-        <f>C339*$J$2</f>
+        <f t="shared" si="10"/>
         <v>991.06204648412051</v>
       </c>
       <c r="E339">
-        <f t="shared" si="5"/>
-        <v>644.1903302146784</v>
+        <f t="shared" si="11"/>
+        <v>693.74343253888435</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -11027,12 +11040,12 @@
         <v>4877.9914116606296</v>
       </c>
       <c r="D340">
-        <f>C340*$J$2</f>
+        <f t="shared" si="10"/>
         <v>991.20785484943985</v>
       </c>
       <c r="E340">
-        <f t="shared" si="5"/>
-        <v>644.28510565213594</v>
+        <f t="shared" si="11"/>
+        <v>693.84549839460783</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -11046,12 +11059,12 @@
         <v>4893.9758149585296</v>
       </c>
       <c r="D341">
-        <f>C341*$J$2</f>
+        <f t="shared" si="10"/>
         <v>994.45588559957321</v>
       </c>
       <c r="E341">
-        <f t="shared" si="5"/>
-        <v>646.39632563972259</v>
+        <f t="shared" si="11"/>
+        <v>696.11911991970123</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -11065,12 +11078,12 @@
         <v>4897.61399943982</v>
       </c>
       <c r="D342">
-        <f>C342*$J$2</f>
+        <f t="shared" si="10"/>
         <v>995.19516468617132</v>
       </c>
       <c r="E342">
-        <f t="shared" si="5"/>
-        <v>646.87685704601142</v>
+        <f t="shared" si="11"/>
+        <v>696.63661528031992</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -11084,12 +11097,12 @@
         <v>4901.3064918482896</v>
       </c>
       <c r="D343">
-        <f>C343*$J$2</f>
+        <f t="shared" si="10"/>
         <v>995.94547914357236</v>
       </c>
       <c r="E343">
-        <f t="shared" si="5"/>
-        <v>647.36456144332203</v>
+        <f t="shared" si="11"/>
+        <v>697.16183540050065</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -11103,12 +11116,12 @@
         <v>4905.0535070103597</v>
       </c>
       <c r="D344">
-        <f>C344*$J$2</f>
+        <f t="shared" si="10"/>
         <v>996.70687262450508</v>
       </c>
       <c r="E344">
-        <f t="shared" si="5"/>
-        <v>647.85946720592835</v>
+        <f t="shared" si="11"/>
+        <v>697.69481083715357</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -11122,12 +11135,12 @@
         <v>4908.8548280073901</v>
       </c>
       <c r="D345">
-        <f>C345*$J$2</f>
+        <f t="shared" si="10"/>
         <v>997.47930105110163</v>
       </c>
       <c r="E345">
-        <f t="shared" si="5"/>
-        <v>648.36154568321604</v>
+        <f t="shared" si="11"/>
+        <v>698.23551073577107</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -11141,12 +11154,12 @@
         <v>4888.59342219064</v>
       </c>
       <c r="D346">
-        <f>C346*$J$2</f>
+        <f t="shared" si="10"/>
         <v>993.36218338913795</v>
       </c>
       <c r="E346">
-        <f t="shared" si="5"/>
-        <v>645.68541920293967</v>
+        <f t="shared" si="11"/>
+        <v>695.35352837239657</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -11160,12 +11173,12 @@
         <v>4889.1138933230004</v>
       </c>
       <c r="D347">
-        <f>C347*$J$2</f>
+        <f t="shared" si="10"/>
         <v>993.46794312323368</v>
       </c>
       <c r="E347">
-        <f t="shared" si="5"/>
-        <v>645.75416303010195</v>
+        <f t="shared" si="11"/>
+        <v>695.42756018626358</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -11179,12 +11192,12 @@
         <v>4905.8978678416797</v>
       </c>
       <c r="D348">
-        <f>C348*$J$2</f>
+        <f t="shared" si="10"/>
         <v>996.8784467454293</v>
       </c>
       <c r="E348">
-        <f t="shared" si="5"/>
-        <v>647.97099038452905</v>
+        <f t="shared" si="11"/>
+        <v>697.81491272180051</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -11198,12 +11211,12 @@
         <v>4909.2964371976004</v>
       </c>
       <c r="D349">
-        <f>C349*$J$2</f>
+        <f t="shared" si="10"/>
         <v>997.56903603855233</v>
       </c>
       <c r="E349">
-        <f t="shared" si="5"/>
-        <v>648.419873425059</v>
+        <f t="shared" si="11"/>
+        <v>698.29832522698655</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -11217,12 +11230,12 @@
         <v>4912.7533743415197</v>
       </c>
       <c r="D350">
-        <f>C350*$J$2</f>
+        <f t="shared" si="10"/>
         <v>998.27148566619678</v>
       </c>
       <c r="E350">
-        <f t="shared" si="5"/>
-        <v>648.87646568302796</v>
+        <f t="shared" si="11"/>
+        <v>698.79003996633776</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -11236,12 +11249,12 @@
         <v>4916.2686543826703</v>
       </c>
       <c r="D351">
-        <f>C351*$J$2</f>
+        <f t="shared" si="10"/>
         <v>998.98579057055861</v>
       </c>
       <c r="E351">
-        <f t="shared" si="5"/>
-        <v>649.34076387086316</v>
+        <f t="shared" si="11"/>
+        <v>699.29005339939101</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -11255,12 +11268,12 @@
         <v>4919.8418463655798</v>
       </c>
       <c r="D352">
-        <f>C352*$J$2</f>
+        <f t="shared" si="10"/>
         <v>999.7118631814858</v>
       </c>
       <c r="E352">
-        <f t="shared" si="5"/>
-        <v>649.81271106796578</v>
+        <f t="shared" si="11"/>
+        <v>699.79830422704003</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -11274,12 +11287,12 @@
         <v>4923.4721085541596</v>
       </c>
       <c r="D353">
-        <f>C353*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1000.4495324582052</v>
       </c>
       <c r="E353">
-        <f t="shared" si="5"/>
-        <v>650.29219609783343</v>
+        <f t="shared" si="11"/>
+        <v>700.3146727207436</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -11293,12 +11306,12 @@
         <v>4899.92870479663</v>
       </c>
       <c r="D354">
-        <f>C354*$J$2</f>
+        <f t="shared" si="10"/>
         <v>995.66551281467514</v>
       </c>
       <c r="E354">
-        <f t="shared" si="5"/>
-        <v>647.18258332953883</v>
+        <f t="shared" si="11"/>
+        <v>696.96585897027251</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -11312,12 +11325,12 @@
         <v>4900.2550502514396</v>
       </c>
       <c r="D355">
-        <f>C355*$J$2</f>
+        <f t="shared" si="10"/>
         <v>995.73182621109243</v>
       </c>
       <c r="E355">
-        <f t="shared" si="5"/>
-        <v>647.22568703721015</v>
+        <f t="shared" si="11"/>
+        <v>697.01227834776466</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -11331,12 +11344,12 @@
         <v>4921.08720282587</v>
       </c>
       <c r="D356">
-        <f>C356*$J$2</f>
+        <f t="shared" si="10"/>
         <v>999.9649196142168</v>
       </c>
       <c r="E356">
-        <f t="shared" si="5"/>
-        <v>649.97719774924099</v>
+        <f t="shared" si="11"/>
+        <v>699.97544372995173</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -11350,12 +11363,12 @@
         <v>4924.3074991821904</v>
       </c>
       <c r="D357">
-        <f>C357*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1000.6192838338211</v>
       </c>
       <c r="E357">
-        <f t="shared" si="5"/>
-        <v>650.40253449198372</v>
+        <f t="shared" si="11"/>
+        <v>700.43349868367477</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -11369,12 +11382,12 @@
         <v>4927.5898654827497</v>
       </c>
       <c r="D358">
-        <f>C358*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1001.2862606660947</v>
       </c>
       <c r="E358">
-        <f t="shared" si="5"/>
-        <v>650.83606943296161</v>
+        <f t="shared" si="11"/>
+        <v>700.90038246626625</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -11388,12 +11401,12 @@
         <v>4930.9336660825302</v>
       </c>
       <c r="D359">
-        <f>C359*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1001.9657209479701</v>
       </c>
       <c r="E359">
-        <f t="shared" si="5"/>
-        <v>651.27771861618055</v>
+        <f t="shared" si="11"/>
+        <v>701.37600466357901</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -11407,12 +11420,12 @@
         <v>4934.3378761692602</v>
       </c>
       <c r="D360">
-        <f>C360*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1002.6574564375936</v>
       </c>
       <c r="E360">
-        <f t="shared" si="5"/>
-        <v>651.72734668443593</v>
+        <f t="shared" si="11"/>
+        <v>701.8602195063155</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -11426,12 +11439,12 @@
         <v>4911.2707308409399</v>
       </c>
       <c r="D361">
-        <f>C361*$J$2</f>
+        <f t="shared" si="10"/>
         <v>997.97021250687897</v>
       </c>
       <c r="E361">
-        <f t="shared" si="5"/>
-        <v>648.68063812947139</v>
+        <f t="shared" si="11"/>
+        <v>698.57914875481526</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -11445,12 +11458,12 @@
         <v>4911.4063435563003</v>
       </c>
       <c r="D362">
-        <f>C362*$J$2</f>
+        <f t="shared" si="10"/>
         <v>997.99776901064013</v>
       </c>
       <c r="E362">
-        <f t="shared" si="5"/>
-        <v>648.69854985691609</v>
+        <f t="shared" si="11"/>
+        <v>698.59843830744808</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -11464,12 +11477,12 @@
         <v>4932.9769884959196</v>
       </c>
       <c r="D363">
-        <f>C363*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1002.3809240623708</v>
       </c>
       <c r="E363">
-        <f t="shared" si="5"/>
-        <v>651.54760064054108</v>
+        <f t="shared" si="11"/>
+        <v>701.66664684365958</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -11483,12 +11496,12 @@
         <v>4935.96017763911</v>
       </c>
       <c r="D364">
-        <f>C364*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1002.9871080962671</v>
       </c>
       <c r="E364">
-        <f t="shared" si="5"/>
-        <v>651.94162026257368</v>
+        <f t="shared" si="11"/>
+        <v>702.09097566738694</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -11502,12 +11515,12 @@
         <v>4939.0090284783601</v>
       </c>
       <c r="D365">
-        <f>C365*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1003.6066345868027</v>
       </c>
       <c r="E365">
-        <f t="shared" si="5"/>
-        <v>652.34431248142175</v>
+        <f t="shared" si="11"/>
+        <v>702.52464421076183</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -11521,12 +11534,12 @@
         <v>4942.1227133387101</v>
       </c>
       <c r="D366">
-        <f>C366*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1004.2393353504259</v>
       </c>
       <c r="E366">
-        <f t="shared" si="5"/>
-        <v>652.75556797777688</v>
+        <f t="shared" si="11"/>
+        <v>702.96753474529805</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -11540,12 +11553,12 @@
         <v>4945.3000360535298</v>
       </c>
       <c r="D367">
-        <f>C367*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1004.8849673260772</v>
       </c>
       <c r="E367">
-        <f t="shared" si="5"/>
-        <v>653.17522876195017</v>
+        <f t="shared" si="11"/>
+        <v>703.41947712825402</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -11559,12 +11572,12 @@
         <v>4922.5591835011901</v>
       </c>
       <c r="D368">
-        <f>C368*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1000.2640260874418</v>
       </c>
       <c r="E368">
-        <f t="shared" si="5"/>
-        <v>650.17161695683717</v>
+        <f t="shared" si="11"/>
+        <v>700.18481826120922</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -11578,12 +11591,12 @@
         <v>4944.9557800480197</v>
       </c>
       <c r="D369">
-        <f>C369*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1004.8150145057575</v>
       </c>
       <c r="E369">
-        <f t="shared" si="5"/>
-        <v>653.12975942874243</v>
+        <f t="shared" si="11"/>
+        <v>703.37051015403017</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -11597,12 +11610,12 @@
         <v>4947.70204375505</v>
       </c>
       <c r="D370">
-        <f>C370*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1005.3730552910262</v>
       </c>
       <c r="E370">
-        <f t="shared" si="5"/>
-        <v>653.49248593916707</v>
+        <f t="shared" si="11"/>
+        <v>703.7611387037183</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -11616,12 +11629,12 @@
         <v>4950.5173831084403</v>
       </c>
       <c r="D371">
-        <f>C371*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1005.945132247635</v>
       </c>
       <c r="E371">
-        <f t="shared" si="5"/>
-        <v>653.86433596096276</v>
+        <f t="shared" si="11"/>
+        <v>704.16159257334448</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -11635,12 +11648,12 @@
         <v>4953.4007940524298</v>
       </c>
       <c r="D372">
-        <f>C372*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1006.5310413514537</v>
       </c>
       <c r="E372">
-        <f t="shared" si="5"/>
-        <v>654.24517687844491</v>
+        <f t="shared" si="11"/>
+        <v>704.57172894601752</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -11654,12 +11667,12 @@
         <v>4956.3509237894395</v>
       </c>
       <c r="D373">
-        <f>C373*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1007.1305077140141</v>
       </c>
       <c r="E373">
-        <f t="shared" si="5"/>
-        <v>654.63483001410918</v>
+        <f t="shared" si="11"/>
+        <v>704.99135539980989</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -11673,12 +11686,12 @@
         <v>4933.7049705865302</v>
       </c>
       <c r="D374">
-        <f>C374*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1002.5288500231829</v>
       </c>
       <c r="E374">
-        <f t="shared" si="5"/>
-        <v>651.64375251506897</v>
+        <f t="shared" si="11"/>
+        <v>701.77019501622806</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -11692,12 +11705,12 @@
         <v>4957.0128883785601</v>
       </c>
       <c r="D375">
-        <f>C375*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1007.2650189185234</v>
       </c>
       <c r="E375">
-        <f t="shared" si="5"/>
-        <v>654.72226229704029</v>
+        <f t="shared" si="11"/>
+        <v>705.08551324296639</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -11711,12 +11724,12 @@
         <v>4959.5230796992</v>
       </c>
       <c r="D376">
-        <f>C376*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1007.7750897948774</v>
       </c>
       <c r="E376">
-        <f t="shared" si="5"/>
-        <v>655.0538083666703</v>
+        <f t="shared" si="11"/>
+        <v>705.44256285641416</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -11730,12 +11743,12 @@
         <v>4962.1055407519498</v>
       </c>
       <c r="D377">
-        <f>C377*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1008.2998458807962</v>
       </c>
       <c r="E377">
-        <f t="shared" si="5"/>
-        <v>655.39489982251757</v>
+        <f t="shared" si="11"/>
+        <v>705.80989211655731</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -11749,12 +11762,12 @@
         <v>4964.7591096000897</v>
       </c>
       <c r="D378">
-        <f>C378*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1008.8390510707382</v>
       </c>
       <c r="E378">
-        <f t="shared" si="5"/>
-        <v>655.7453831959798</v>
+        <f t="shared" si="11"/>
+        <v>706.18733574951671</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -11768,12 +11781,12 @@
         <v>4967.4822941970697</v>
       </c>
       <c r="D379">
-        <f>C379*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1009.3924021808446</v>
       </c>
       <c r="E379">
-        <f t="shared" si="5"/>
-        <v>656.105061417549</v>
+        <f t="shared" si="11"/>
+        <v>706.57468152659112</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -11787,12 +11800,12 @@
         <v>4970.27330406893</v>
       </c>
       <c r="D380">
-        <f>C380*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1009.9595353868066</v>
       </c>
       <c r="E380">
-        <f t="shared" si="5"/>
-        <v>656.47369800142428</v>
+        <f t="shared" si="11"/>
+        <v>706.97167477076459</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -11806,12 +11819,12 @@
         <v>4944.8351355982804</v>
       </c>
       <c r="D381">
-        <f>C381*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1004.7904995535705</v>
       </c>
       <c r="E381">
-        <f t="shared" si="5"/>
-        <v>653.11382470982085</v>
+        <f t="shared" si="11"/>
+        <v>703.3533496874993</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -11825,12 +11838,12 @@
         <v>4971.4126486039604</v>
       </c>
       <c r="D382">
-        <f>C382*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1010.1910501963247</v>
       </c>
       <c r="E382">
-        <f t="shared" si="5"/>
-        <v>656.62418262761105</v>
+        <f t="shared" si="11"/>
+        <v>707.13373513742727</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -11844,12 +11857,12 @@
         <v>4973.7635114305704</v>
       </c>
       <c r="D383">
-        <f>C383*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1010.6687455226919</v>
       </c>
       <c r="E383">
-        <f t="shared" si="5"/>
-        <v>656.93468458974974</v>
+        <f t="shared" si="11"/>
+        <v>707.46812186588431</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -11863,12 +11876,12 @@
         <v>4976.1882786238402</v>
       </c>
       <c r="D384">
-        <f>C384*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1011.1614582163643</v>
       </c>
       <c r="E384">
-        <f t="shared" si="5"/>
-        <v>657.25494784063676</v>
+        <f t="shared" si="11"/>
+        <v>707.81302075145493</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -11882,12 +11895,12 @@
         <v>4978.6853386667699</v>
       </c>
       <c r="D385">
-        <f>C385*$J$2</f>
+        <f t="shared" si="10"/>
         <v>1011.6688608170876</v>
       </c>
       <c r="E385">
-        <f t="shared" si="5"/>
-        <v>657.58475953110701</v>
+        <f t="shared" si="11"/>
+        <v>708.16820257196127</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -11901,12 +11914,12 @@
         <v>4981.2527983507098</v>
       </c>
       <c r="D386">
-        <f>C386*$J$2</f>
+        <f t="shared" ref="D386:D442" si="12">C386*$J$2</f>
         <v>1012.1905686248642</v>
       </c>
       <c r="E386">
-        <f t="shared" si="5"/>
-        <v>657.92386960616182</v>
+        <f t="shared" si="11"/>
+        <v>708.53339803740494</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -11920,12 +11933,12 @@
         <v>4955.9411798522797</v>
       </c>
       <c r="D387">
-        <f>C387*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1007.0472477459832</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E442" si="6">D387*$K$2</f>
-        <v>654.58071103488908</v>
+        <f t="shared" ref="E387:E442" si="13">D387*$K$2</f>
+        <v>704.93307342218816</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -11939,12 +11952,12 @@
         <v>4992.29579265757</v>
       </c>
       <c r="D388">
-        <f>C388*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1014.4345050680182</v>
       </c>
       <c r="E388">
-        <f t="shared" si="6"/>
-        <v>659.38242829421188</v>
+        <f t="shared" si="13"/>
+        <v>710.10415354761267</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -11958,12 +11971,12 @@
         <v>4989.950710352</v>
       </c>
       <c r="D389">
-        <f>C389*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1013.9579843435264</v>
       </c>
       <c r="E389">
-        <f t="shared" si="6"/>
-        <v>659.07268982329219</v>
+        <f t="shared" si="13"/>
+        <v>709.77058904046839</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -11977,12 +11990,12 @@
         <v>4987.6783673165901</v>
       </c>
       <c r="D390">
-        <f>C390*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1013.496244238731</v>
       </c>
       <c r="E390">
-        <f t="shared" si="6"/>
-        <v>658.77255875517517</v>
+        <f t="shared" si="13"/>
+        <v>709.44737096711174</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -11996,12 +12009,12 @@
         <v>4985.48073981779</v>
       </c>
       <c r="D391">
-        <f>C391*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1013.0496863309749</v>
       </c>
       <c r="E391">
-        <f t="shared" si="6"/>
-        <v>658.48229611513364</v>
+        <f t="shared" si="13"/>
+        <v>709.13478043168232</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -12015,12 +12028,12 @@
         <v>4983.3595370654702</v>
       </c>
       <c r="D392">
-        <f>C392*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1012.6186579317035</v>
       </c>
       <c r="E392">
-        <f t="shared" si="6"/>
-        <v>658.20212765560734</v>
+        <f t="shared" si="13"/>
+        <v>708.83306055219248</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -12034,12 +12047,12 @@
         <v>5003.3929990127599</v>
       </c>
       <c r="D393">
-        <f>C393*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1016.6894573993927</v>
       </c>
       <c r="E393">
-        <f t="shared" si="6"/>
-        <v>660.84814730960534</v>
+        <f t="shared" si="13"/>
+        <v>711.68262017957488</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -12053,12 +12066,12 @@
         <v>5001.2685568271199</v>
       </c>
       <c r="D394">
-        <f>C394*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1016.2577707472707</v>
       </c>
       <c r="E394">
-        <f t="shared" si="6"/>
-        <v>660.56755098572592</v>
+        <f t="shared" si="13"/>
+        <v>711.38043952308942</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -12072,12 +12085,12 @@
         <v>4999.2189277938696</v>
       </c>
       <c r="D395">
-        <f>C395*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1015.8412861277143</v>
       </c>
       <c r="E395">
-        <f t="shared" si="6"/>
-        <v>660.29683598301426</v>
+        <f t="shared" si="13"/>
+        <v>711.08890028939993</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -12091,12 +12104,12 @@
         <v>4997.2461500198497</v>
       </c>
       <c r="D396">
-        <f>C396*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1015.4404176840334</v>
       </c>
       <c r="E396">
-        <f t="shared" si="6"/>
-        <v>660.0362714946217</v>
+        <f t="shared" si="13"/>
+        <v>710.80829237882335</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -12110,12 +12123,12 @@
         <v>4995.3520070383202</v>
       </c>
       <c r="D397">
-        <f>C397*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1015.0555278301866</v>
       </c>
       <c r="E397">
-        <f t="shared" si="6"/>
-        <v>659.78609308962132</v>
+        <f t="shared" si="13"/>
+        <v>710.53886948113063</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -12129,12 +12142,12 @@
         <v>5014.5346683808102</v>
       </c>
       <c r="D398">
-        <f>C398*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1018.9534446149806</v>
       </c>
       <c r="E398">
-        <f t="shared" si="6"/>
-        <v>662.31973899973741</v>
+        <f t="shared" si="13"/>
+        <v>713.26741123048646</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -12148,12 +12161,12 @@
         <v>5012.6285600225601</v>
       </c>
       <c r="D399">
-        <f>C399*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1018.5661233965842</v>
       </c>
       <c r="E399">
-        <f t="shared" si="6"/>
-        <v>662.06798020777978</v>
+        <f t="shared" si="13"/>
+        <v>712.99628637760895</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -12167,12 +12180,12 @@
         <v>5010.7990442157197</v>
       </c>
       <c r="D400">
-        <f>C400*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1018.1943657846342</v>
       </c>
       <c r="E400">
-        <f t="shared" si="6"/>
-        <v>661.82633776001228</v>
+        <f t="shared" si="13"/>
+        <v>712.73605604924387</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -12186,12 +12199,12 @@
         <v>5009.0481985598299</v>
       </c>
       <c r="D401">
-        <f>C401*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1017.8385939473574</v>
       </c>
       <c r="E401">
-        <f t="shared" si="6"/>
-        <v>661.59508606578231</v>
+        <f t="shared" si="13"/>
+        <v>712.48701576315011</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -12205,12 +12218,12 @@
         <v>5007.37785644424</v>
       </c>
       <c r="D402">
-        <f>C402*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1017.4991804294696</v>
       </c>
       <c r="E402">
-        <f t="shared" si="6"/>
-        <v>661.37446727915528</v>
+        <f t="shared" si="13"/>
+        <v>712.24942630062867</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -12224,12 +12237,12 @@
         <v>5025.7106319987597</v>
       </c>
       <c r="D403">
-        <f>C403*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1021.2244004221479</v>
       </c>
       <c r="E403">
-        <f t="shared" si="6"/>
-        <v>663.7958602743962</v>
+        <f t="shared" si="13"/>
+        <v>714.85708029550347</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -12243,12 +12256,12 @@
         <v>5024.0199834802997</v>
       </c>
       <c r="D404">
-        <f>C404*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1020.8808606431969</v>
       </c>
       <c r="E404">
-        <f t="shared" si="6"/>
-        <v>663.57255941807796</v>
+        <f t="shared" si="13"/>
+        <v>714.61660245023779</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -12262,12 +12275,12 @@
         <v>5022.4073865571199</v>
       </c>
       <c r="D405">
-        <f>C405*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1020.5531809484067</v>
       </c>
       <c r="E405">
-        <f t="shared" si="6"/>
-        <v>663.35956761646446</v>
+        <f t="shared" si="13"/>
+        <v>714.38722666388469</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -12281,12 +12294,12 @@
         <v>5020.8749352946197</v>
       </c>
       <c r="D406">
-        <f>C406*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1020.2417868518667</v>
       </c>
       <c r="E406">
-        <f t="shared" si="6"/>
-        <v>663.15716145371334</v>
+        <f t="shared" si="13"/>
+        <v>714.16925079630664</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -12300,12 +12313,12 @@
         <v>5036.9103477369199</v>
       </c>
       <c r="D407">
-        <f>C407*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1023.5001826601421</v>
       </c>
       <c r="E407">
-        <f t="shared" si="6"/>
-        <v>665.27511872909236</v>
+        <f t="shared" si="13"/>
+        <v>716.45012786209941</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -12319,12 +12332,12 @@
         <v>5035.4317247568397</v>
       </c>
       <c r="D408">
-        <f>C408*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1023.1997264705898</v>
       </c>
       <c r="E408">
-        <f t="shared" si="6"/>
-        <v>665.07982220588337</v>
+        <f t="shared" si="13"/>
+        <v>716.23980852941281</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -12338,12 +12351,12 @@
         <v>5034.0322695886898</v>
       </c>
       <c r="D409">
-        <f>C409*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1022.9153571804218</v>
       </c>
       <c r="E409">
-        <f t="shared" si="6"/>
-        <v>664.89498216727418</v>
+        <f t="shared" si="13"/>
+        <v>716.0407500262952</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -12357,12 +12370,12 @@
         <v>5032.7140695325397</v>
       </c>
       <c r="D410">
-        <f>C410*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1022.647498929012</v>
       </c>
       <c r="E410">
-        <f t="shared" si="6"/>
-        <v>664.72087430385784</v>
+        <f t="shared" si="13"/>
+        <v>715.85324925030841</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -12376,12 +12389,12 @@
         <v>5028.7594900713302</v>
       </c>
       <c r="D411">
-        <f>C411*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1021.8439283824943</v>
       </c>
       <c r="E411">
-        <f t="shared" si="6"/>
-        <v>664.19855344862128</v>
+        <f t="shared" si="13"/>
+        <v>715.29074986774594</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -12395,12 +12408,12 @@
         <v>5031.6006546094504</v>
       </c>
       <c r="D412">
-        <f>C412*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1022.4212530166403</v>
       </c>
       <c r="E412">
-        <f t="shared" si="6"/>
-        <v>664.57381446081627</v>
+        <f t="shared" si="13"/>
+        <v>715.69487711164822</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -12414,12 +12427,12 @@
         <v>5034.6443577031596</v>
       </c>
       <c r="D413">
-        <f>C413*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1023.039733485282</v>
       </c>
       <c r="E413">
-        <f t="shared" si="6"/>
-        <v>664.97582676543334</v>
+        <f t="shared" si="13"/>
+        <v>716.12781343969732</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -12433,12 +12446,12 @@
         <v>5037.7062570307098</v>
       </c>
       <c r="D414">
-        <f>C414*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1023.6619114286402</v>
       </c>
       <c r="E414">
-        <f t="shared" si="6"/>
-        <v>665.38024242861616</v>
+        <f t="shared" si="13"/>
+        <v>716.56333800004813</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -12452,12 +12465,12 @@
         <v>5039.7540999088196</v>
       </c>
       <c r="D415">
-        <f>C415*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1024.0780331014721</v>
       </c>
       <c r="E415">
-        <f t="shared" si="6"/>
-        <v>665.65072151595689</v>
+        <f t="shared" si="13"/>
+        <v>716.85462317103043</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -12471,12 +12484,12 @@
         <v>5042.8191417036696</v>
       </c>
       <c r="D416">
-        <f>C416*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1024.7008495941857</v>
       </c>
       <c r="E416">
-        <f t="shared" si="6"/>
-        <v>666.05555223622071</v>
+        <f t="shared" si="13"/>
+        <v>717.29059471592996</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -12490,12 +12503,12 @@
         <v>5048.1229513673597</v>
       </c>
       <c r="D417">
-        <f>C417*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1025.7785837178474</v>
       </c>
       <c r="E417">
-        <f t="shared" si="6"/>
-        <v>666.75607941660087</v>
+        <f t="shared" si="13"/>
+        <v>718.04500860249311</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -12509,12 +12522,12 @@
         <v>5040.1018105081603</v>
       </c>
       <c r="D418">
-        <f>C418*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1024.148687895258</v>
       </c>
       <c r="E418">
-        <f t="shared" si="6"/>
-        <v>665.69664713191776</v>
+        <f t="shared" si="13"/>
+        <v>716.90408152668056</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -12528,12 +12541,12 @@
         <v>5046.0141549627797</v>
       </c>
       <c r="D419">
-        <f>C419*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1025.3500762884369</v>
       </c>
       <c r="E419">
-        <f t="shared" si="6"/>
-        <v>666.47754958748396</v>
+        <f t="shared" si="13"/>
+        <v>717.74505340190581</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -12547,12 +12560,12 @@
         <v>5038.5412830085797</v>
       </c>
       <c r="D420">
-        <f>C420*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1023.8315887073434</v>
       </c>
       <c r="E420">
-        <f t="shared" si="6"/>
-        <v>665.49053265977318</v>
+        <f t="shared" si="13"/>
+        <v>716.68211209514027</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -12566,12 +12579,12 @@
         <v>5037.0528304170402</v>
       </c>
       <c r="D421">
-        <f>C421*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1023.5291351407425</v>
       </c>
       <c r="E421">
-        <f t="shared" si="6"/>
-        <v>665.2939378414826</v>
+        <f t="shared" si="13"/>
+        <v>716.47039459851965</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -12585,12 +12598,12 @@
         <v>5050.6984232340201</v>
       </c>
       <c r="D422">
-        <f>C422*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1026.3019196011528</v>
       </c>
       <c r="E422">
-        <f t="shared" si="6"/>
-        <v>667.09624774074939</v>
+        <f t="shared" si="13"/>
+        <v>718.41134372080694</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -12604,12 +12617,12 @@
         <v>5049.3250959679799</v>
       </c>
       <c r="D423">
-        <f>C423*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1026.0228595006936</v>
       </c>
       <c r="E423">
-        <f t="shared" si="6"/>
-        <v>666.91485867545089</v>
+        <f t="shared" si="13"/>
+        <v>718.21600165048551</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -12623,12 +12636,12 @@
         <v>5048.0241242468801</v>
       </c>
       <c r="D424">
-        <f>C424*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1025.758502046966</v>
       </c>
       <c r="E424">
-        <f t="shared" si="6"/>
-        <v>666.74302633052787</v>
+        <f t="shared" si="13"/>
+        <v>718.03095143287612</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -12642,12 +12655,12 @@
         <v>5061.2910660376901</v>
       </c>
       <c r="D425">
-        <f>C425*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1028.4543446188586</v>
       </c>
       <c r="E425">
-        <f t="shared" si="6"/>
-        <v>668.49532400225814</v>
+        <f t="shared" si="13"/>
+        <v>719.91804123320094</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -12661,12 +12674,12 @@
         <v>5060.1011049624103</v>
       </c>
       <c r="D426">
-        <f>C426*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1028.2125445283618</v>
       </c>
       <c r="E426">
-        <f t="shared" si="6"/>
-        <v>668.33815394343526</v>
+        <f t="shared" si="13"/>
+        <v>719.74878116985326</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -12680,12 +12693,12 @@
         <v>5058.9834569862696</v>
       </c>
       <c r="D427">
-        <f>C427*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1027.9854384596099</v>
       </c>
       <c r="E427">
-        <f t="shared" si="6"/>
-        <v>668.19053499874644</v>
+        <f t="shared" si="13"/>
+        <v>719.5898069217269</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -12699,12 +12712,12 @@
         <v>5071.8703291044403</v>
       </c>
       <c r="D428">
-        <f>C428*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1030.6040508740223</v>
       </c>
       <c r="E428">
-        <f t="shared" si="6"/>
-        <v>669.89263306811449</v>
+        <f t="shared" si="13"/>
+        <v>721.42283561181557</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -12718,12 +12731,12 @@
         <v>5070.8594952513004</v>
       </c>
       <c r="D429">
-        <f>C429*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1030.3986494350643</v>
       </c>
       <c r="E429">
-        <f t="shared" si="6"/>
-        <v>669.75912213279184</v>
+        <f t="shared" si="13"/>
+        <v>721.27905460454497</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -12737,12 +12750,12 @@
         <v>5069.9206168792198</v>
       </c>
       <c r="D430">
-        <f>C430*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1030.2078693498574</v>
       </c>
       <c r="E430">
-        <f t="shared" si="6"/>
-        <v>669.63511507740736</v>
+        <f t="shared" si="13"/>
+        <v>721.14550854490017</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -12756,12 +12769,12 @@
         <v>5082.4266990678298</v>
       </c>
       <c r="D431">
-        <f>C431*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1032.7491052505829</v>
       </c>
       <c r="E431">
-        <f t="shared" si="6"/>
-        <v>671.28691841287889</v>
+        <f t="shared" si="13"/>
+        <v>722.92437367540799</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -12775,12 +12788,12 @@
         <v>5081.5903776535697</v>
       </c>
       <c r="D432">
-        <f>C432*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1032.5791647392052</v>
       </c>
       <c r="E432">
-        <f t="shared" si="6"/>
-        <v>671.17645708048337</v>
+        <f t="shared" si="13"/>
+        <v>722.80541531744359</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -12794,12 +12807,12 @@
         <v>5092.9506027742</v>
       </c>
       <c r="D433">
-        <f>C433*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1034.8875624837174</v>
       </c>
       <c r="E433">
-        <f t="shared" si="6"/>
-        <v>672.67691561441632</v>
+        <f t="shared" si="13"/>
+        <v>724.42129373860212</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -12813,12 +12826,12 @@
         <v>5092.2838444272802</v>
       </c>
       <c r="D434">
-        <f>C434*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1034.7520771876234</v>
       </c>
       <c r="E434">
-        <f t="shared" si="6"/>
-        <v>672.58885017195519</v>
+        <f t="shared" si="13"/>
+        <v>724.32645403133631</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -12832,12 +12845,12 @@
         <v>5103.4324488140701</v>
       </c>
       <c r="D435">
-        <f>C435*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1037.017473599019</v>
       </c>
       <c r="E435">
-        <f t="shared" si="6"/>
-        <v>674.06135783936236</v>
+        <f t="shared" si="13"/>
+        <v>725.91223151931331</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -12851,12 +12864,12 @@
         <v>5102.92999444012</v>
       </c>
       <c r="D436">
-        <f>C436*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1036.9153748702324</v>
       </c>
       <c r="E436">
-        <f t="shared" si="6"/>
-        <v>673.99499366565112</v>
+        <f t="shared" si="13"/>
+        <v>725.84076240916261</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -12870,12 +12883,12 @@
         <v>5113.8626502590296</v>
       </c>
       <c r="D437">
-        <f>C437*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1039.1368905326349</v>
       </c>
       <c r="E437">
-        <f t="shared" si="6"/>
-        <v>675.43897884621265</v>
+        <f t="shared" si="13"/>
+        <v>727.39582337284435</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -12889,12 +12902,12 @@
         <v>5113.5189594937601</v>
       </c>
       <c r="D438">
-        <f>C438*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1039.0670525691321</v>
       </c>
       <c r="E438">
-        <f t="shared" si="6"/>
-        <v>675.39358416993593</v>
+        <f t="shared" si="13"/>
+        <v>727.34693679839245</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -12908,12 +12921,12 @@
         <v>5124.2316727817697</v>
       </c>
       <c r="D439">
-        <f>C439*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1041.2438759092556</v>
       </c>
       <c r="E439">
-        <f t="shared" si="6"/>
-        <v>676.80851934101622</v>
+        <f t="shared" si="13"/>
+        <v>728.87071313647891</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -12927,12 +12940,12 @@
         <v>5134.5300857625198</v>
       </c>
       <c r="D440">
-        <f>C440*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1043.3365134269441</v>
       </c>
       <c r="E440">
-        <f t="shared" si="6"/>
-        <v>678.16873372751365</v>
+        <f t="shared" si="13"/>
+        <v>730.33555939886082</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -12946,12 +12959,12 @@
         <v>5144.7486119259902</v>
       </c>
       <c r="D441">
-        <f>C441*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1045.4129179433612</v>
       </c>
       <c r="E441">
-        <f t="shared" si="6"/>
-        <v>679.51839666318483</v>
+        <f t="shared" si="13"/>
+        <v>731.78904256035275</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -12965,12 +12978,12 @@
         <v>5154.8781746438099</v>
       </c>
       <c r="D442">
-        <f>C442*$J$2</f>
+        <f t="shared" si="12"/>
         <v>1047.471245087622</v>
       </c>
       <c r="E442">
-        <f t="shared" si="6"/>
-        <v>680.85630930695436</v>
+        <f t="shared" si="13"/>
+        <v>733.22987156133536</v>
       </c>
     </row>
   </sheetData>
